--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>Pin #</t>
   </si>
@@ -51,12 +51,6 @@
     <t>NRST</t>
   </si>
   <si>
-    <t>VSSA</t>
-  </si>
-  <si>
-    <t>VDDA</t>
-  </si>
-  <si>
     <t>PA0-WKUP</t>
   </si>
   <si>
@@ -306,13 +300,370 @@
       </rPr>
       <t>DDA</t>
     </r>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>VOUT_SENSE</t>
+  </si>
+  <si>
+    <t>D3V3_STM</t>
+  </si>
+  <si>
+    <t>AGND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WKUP/USART2_CTS/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM2_CH1_ETR(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART2_RTS/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM2_CH2(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART2_TX/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM2_CH3(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART2_RX/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM2_CH4(8)</t>
+    </r>
+  </si>
+  <si>
+    <t>D3V3_SENSE</t>
+  </si>
+  <si>
+    <t>D1V5_SENSE</t>
+  </si>
+  <si>
+    <t>DXVY_SENSE</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI1_NSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/ADC_IN4/USART2_CK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI1_SCK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/ADC_IN5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI1_MISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/ADC_IN6/TIM3_CH1(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI1_MOSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/ADC_IN7/TIM3_CH2(8)</t>
+    </r>
+  </si>
+  <si>
+    <t>SPI1 signals</t>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>SmartFusion connector</t>
+  </si>
+  <si>
+    <t>Check if it should be connected to the SD card</t>
+  </si>
+  <si>
+    <t>PB2/BOOT1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM3_CH3(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_IN9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/TIM3_CH4(8)</t>
+    </r>
+  </si>
+  <si>
+    <t>A3V3_SENSE</t>
+  </si>
+  <si>
+    <t>A1V5_SENSE</t>
+  </si>
+  <si>
+    <t>A3V3 rail current sense</t>
+  </si>
+  <si>
+    <t>A1V5 rail current sense</t>
+  </si>
+  <si>
+    <t>VOUT rail current sense</t>
+  </si>
+  <si>
+    <t>D3V3 rail current sense</t>
+  </si>
+  <si>
+    <t>D1V5 rail current sense</t>
+  </si>
+  <si>
+    <t>DXVY rail current sense</t>
+  </si>
+  <si>
+    <t>Check if BOOT1 needs a jumper ot to be tied LOW/HIGH | can be used as PB2</t>
+  </si>
+  <si>
+    <t>GPIO / BOOT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="10">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +673,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -348,6 +706,29 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,21 +828,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,29 +845,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -793,612 +1186,1045 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" thickTop="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>Pin #</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>PB11</t>
-  </si>
-  <si>
-    <t>VSS_1</t>
-  </si>
-  <si>
-    <t>VDD_1</t>
   </si>
   <si>
     <t>PB12</t>
@@ -554,9 +548,6 @@
     </r>
   </si>
   <si>
-    <t>SPI1 signals</t>
-  </si>
-  <si>
     <t>SPI1_NSS</t>
   </si>
   <si>
@@ -650,13 +641,183 @@
   </si>
   <si>
     <t>GPIO / BOOT1</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I2C2_SCL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ USART3_TX(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I2C2_SDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ USART3_RX(8)</t>
+    </r>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>VBAT current sense, DXVY feeback potentiometer and PMIC</t>
+  </si>
+  <si>
+    <r>
+      <t>SPI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD_1</t>
+    </r>
+  </si>
+  <si>
+    <t>DGND</t>
+  </si>
+  <si>
+    <t>Check if it should be connected to the SmartFusion connector instead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +894,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -752,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -825,13 +994,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,6 +1075,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1186,19 +1381,19 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
@@ -1212,13 +1407,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
@@ -1228,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
@@ -1240,10 +1435,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1258,28 +1453,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,26 +1485,26 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,24 +1515,24 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,20 +1543,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
@@ -1374,26 +1569,26 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,16 +1599,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -1427,26 +1622,26 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" thickTop="1">
@@ -1454,27 +1649,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -1482,24 +1679,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="10"/>
     </row>
@@ -1511,22 +1710,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
@@ -1537,22 +1736,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -1563,22 +1762,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" thickBot="1">
@@ -1589,22 +1788,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -1615,28 +1814,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -1647,19 +1846,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -1673,19 +1872,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
@@ -1699,19 +1898,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
@@ -1725,23 +1924,23 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -1752,23 +1951,23 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -1779,84 +1978,136 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" thickTop="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10">
@@ -1864,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1879,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1894,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1909,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1924,7 +2175,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1939,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1954,7 +2205,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1969,7 +2220,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1984,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1999,7 +2250,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2014,7 +2265,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2029,7 +2280,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2044,7 +2295,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2059,7 +2310,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2074,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2089,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2104,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2119,7 +2370,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2134,7 +2385,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2149,7 +2400,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2164,7 +2415,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2179,7 +2430,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2194,7 +2445,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2209,7 +2460,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2220,11 +2471,14 @@
       <c r="I50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="343"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="193">
   <si>
     <t>Pin #</t>
   </si>
@@ -120,12 +120,6 @@
     <t>PA13</t>
   </si>
   <si>
-    <t>VSS_2</t>
-  </si>
-  <si>
-    <t>VDD_2</t>
-  </si>
-  <si>
     <t>PB8</t>
   </si>
   <si>
@@ -223,6 +217,9 @@
   </si>
   <si>
     <t>OSC32_OUT</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>OSC_IN</t>
@@ -811,13 +808,519 @@
   </si>
   <si>
     <t>Check if it should be connected to the SmartFusion connector instead</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD_1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI2_NSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/I2C2_SMBA/USART3_CK(8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI2_SCK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/USART3_CTS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI2_MISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/USART3_RTS</t>
+    </r>
+  </si>
+  <si>
+    <t>SPI2_NSS</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>SD card</t>
+  </si>
+  <si>
+    <r>
+      <t>SPI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <t>USART1_CK/MCO</t>
+  </si>
+  <si>
+    <t>USART1_TX(8)</t>
+  </si>
+  <si>
+    <t>USART1_RX(8)</t>
+  </si>
+  <si>
+    <t>Can be used on PowerBoard if we have enough GPIOs already | If connected to SmartFusion it would be nice to have the UART functionality</t>
+  </si>
+  <si>
+    <t>GPIO x3</t>
+  </si>
+  <si>
+    <t>USBDM</t>
+  </si>
+  <si>
+    <t>USBDP</t>
+  </si>
+  <si>
+    <r>
+      <t>USART1_RTS/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USBDP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART1_CTS/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USBDM</t>
+    </r>
+  </si>
+  <si>
+    <t>USB connector</t>
+  </si>
+  <si>
+    <t>USB data signals</t>
+  </si>
+  <si>
+    <t>JTSMS-SWDIO</t>
+  </si>
+  <si>
+    <t>JTMS</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD_2</t>
+    </r>
+  </si>
+  <si>
+    <t>Programmer header</t>
+  </si>
+  <si>
+    <t>JTAG/SW? | Header type?</t>
+  </si>
+  <si>
+    <t>Reset signal</t>
+  </si>
+  <si>
+    <t>JTCK/SWCLK</t>
+  </si>
+  <si>
+    <t>JTDI</t>
+  </si>
+  <si>
+    <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
+  </si>
+  <si>
+    <t>JTCK</t>
+  </si>
+  <si>
+    <t>JTAG/GPIO?</t>
+  </si>
+  <si>
+    <t>JTDO</t>
+  </si>
+  <si>
+    <t>JNTRST</t>
+  </si>
+  <si>
+    <t>TIM2_CH2/ PB3/TRACESWO/SPI1_SCK</t>
+  </si>
+  <si>
+    <t>TIM3_CH1/PB4/SPI1_MISO</t>
+  </si>
+  <si>
+    <t>JTDO/TRACESWO?</t>
+  </si>
+  <si>
+    <t>JNTRST/PB4</t>
+  </si>
+  <si>
+    <t>I2C1_SMBA</t>
+  </si>
+  <si>
+    <t>TIM3_CH2/SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I2C1_SCL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/TIM4_CH1</t>
+    </r>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if it should be used as PowerBoard I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C bus instead</t>
+    </r>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Boot mode selector pin</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>May be used on PowerBoard instead</t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
+  </si>
+  <si>
+    <t>TIM4_CH4</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS_3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD_3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I2C1_SDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8)/TIM4_CH2</t>
+    </r>
+  </si>
+  <si>
+    <t>2 or 3-pin jumper?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +1405,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -921,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1014,13 +1526,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,19 +1575,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -1073,14 +1596,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1380,19 +1930,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1407,26 +1957,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
@@ -1434,13 +1984,13 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="E2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1453,28 +2003,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
+      <c r="E3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,26 +2035,26 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,24 +2065,24 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,20 +2093,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
@@ -1569,26 +2119,28 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,18 +2151,20 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -1622,26 +2176,28 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" thickTop="1">
@@ -1649,29 +2205,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -1679,27 +2237,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -1710,22 +2270,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
@@ -1736,22 +2296,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -1762,22 +2322,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" thickBot="1">
@@ -1788,22 +2348,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -1814,31 +2374,31 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1846,19 +2406,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -1872,19 +2432,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
@@ -1898,19 +2458,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
@@ -1924,23 +2484,23 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>110</v>
+      <c r="E20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -1951,23 +2511,23 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>111</v>
+      <c r="E21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -1978,24 +2538,24 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="14" t="s">
         <v>118</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -2006,31 +2566,31 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>124</v>
+      <c r="E23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2038,22 +2598,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>125</v>
+      <c r="E24" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickTop="1">
@@ -2061,417 +2621,758 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="18">
+        <v>59</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" thickBot="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+        <v>59</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="C29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" thickTop="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" thickBot="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="46.5" thickTop="1" thickBot="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="61.5" thickTop="1" thickBot="1">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="46.5" thickTop="1" thickBot="1">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="19"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" thickTop="1">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="32">
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I31:I33"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="H16:H19"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
   <si>
     <t>Pin #</t>
   </si>
@@ -1112,9 +1112,6 @@
     <t>JNTRST</t>
   </si>
   <si>
-    <t>TIM2_CH2/ PB3/TRACESWO/SPI1_SCK</t>
-  </si>
-  <si>
     <t>TIM3_CH1/PB4/SPI1_MISO</t>
   </si>
   <si>
@@ -1245,9 +1242,6 @@
     <t>Boot mode selector pin</t>
   </si>
   <si>
-    <t>GPIO</t>
-  </si>
-  <si>
     <t>May be used on PowerBoard instead</t>
   </si>
   <si>
@@ -1313,14 +1307,23 @@
     </r>
   </si>
   <si>
-    <t>2 or 3-pin jumper?</t>
+    <t>GPIO x2</t>
+  </si>
+  <si>
+    <t>TIM2_CH2/PB3/TRACESWO/SPI1_SCK</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +1334,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1415,12 +1425,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1538,17 +1553,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1557,49 +1573,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1608,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1626,16 +1645,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1930,21 +1953,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
@@ -1966,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1984,18 +2007,18 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2008,19 +2031,19 @@
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2040,13 +2063,13 @@
       <c r="D4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="29"/>
+      <c r="F4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="31"/>
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
@@ -2058,7 +2081,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="4">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2070,13 +2093,13 @@
       <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="6" t="s">
         <v>70</v>
       </c>
@@ -2086,7 +2109,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="4">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2098,10 +2121,10 @@
       <c r="D6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="6"/>
@@ -2124,10 +2147,10 @@
       <c r="D7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2156,10 +2179,10 @@
       <c r="D8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2181,13 +2204,13 @@
       <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="E9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2213,17 +2236,17 @@
       <c r="D10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>59</v>
@@ -2245,24 +2268,24 @@
       <c r="D11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="E11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2275,18 +2298,20 @@
       <c r="D12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>84</v>
       </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="4">
@@ -2301,13 +2326,13 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>91</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -2327,13 +2352,13 @@
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>92</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -2353,13 +2378,13 @@
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>93</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -2379,13 +2404,13 @@
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -2411,13 +2436,13 @@
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>101</v>
       </c>
       <c r="H17" s="5"/>
@@ -2437,13 +2462,13 @@
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="5"/>
@@ -2463,13 +2488,13 @@
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="5"/>
@@ -2489,13 +2514,13 @@
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="H20" s="4"/>
@@ -2516,13 +2541,13 @@
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>110</v>
       </c>
       <c r="H21" s="4"/>
@@ -2531,7 +2556,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A22" s="4">
+      <c r="A22" s="30">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2543,18 +2568,18 @@
       <c r="D22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2571,19 +2596,19 @@
       <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="21" t="s">
         <v>127</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -2603,17 +2628,17 @@
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickTop="1">
@@ -2629,17 +2654,17 @@
       <c r="D25" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>85</v>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>59</v>
@@ -2658,17 +2683,17 @@
       <c r="D26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>130</v>
+      <c r="E26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>59</v>
@@ -2687,22 +2712,22 @@
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2719,18 +2744,18 @@
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A29" s="4">
@@ -2745,18 +2770,18 @@
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="4">
@@ -2771,18 +2796,18 @@
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="F30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="4">
@@ -2797,22 +2822,22 @@
       <c r="D31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2829,18 +2854,18 @@
       <c r="D32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="4">
@@ -2855,18 +2880,18 @@
       <c r="D33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="4">
@@ -2881,16 +2906,16 @@
       <c r="D34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="28" t="s">
         <v>152</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2910,20 +2935,20 @@
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="12" t="s">
+      <c r="F35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="4">
+      <c r="A36" s="30">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2935,13 +2960,13 @@
       <c r="D36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="14" t="s">
         <v>155</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -2965,17 +2990,17 @@
       <c r="D37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>85</v>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>59</v>
@@ -2994,24 +3019,24 @@
       <c r="D38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>130</v>
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="4">
+      <c r="A39" s="30">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3023,25 +3048,25 @@
       <c r="D39" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="29" t="s">
         <v>166</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A40" s="4">
+    <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A40" s="30">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3053,25 +3078,25 @@
       <c r="D40" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>160</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="61.5" thickTop="1" thickBot="1">
-      <c r="A41" s="4">
+    <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A41" s="30">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3083,13 +3108,13 @@
       <c r="D41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="E41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>168</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -3097,11 +3122,11 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="46.5" thickTop="1" thickBot="1">
-      <c r="A42" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A42" s="30">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3113,13 +3138,13 @@
       <c r="D42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="E42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>169</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -3127,10 +3152,10 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -3143,23 +3168,23 @@
       <c r="D43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>104</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3175,23 +3200,23 @@
       <c r="D44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3207,17 +3232,17 @@
       <c r="D45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
+      <c r="E45" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3233,24 +3258,22 @@
       <c r="D46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="12" t="s">
+      <c r="E46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>192</v>
-      </c>
+      <c r="J46"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="4">
@@ -3265,21 +3288,23 @@
       <c r="D47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="E47" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="19" t="s">
-        <v>186</v>
+      <c r="I47" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3295,18 +3320,18 @@
       <c r="D48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" thickTop="1">
       <c r="A49" s="4">
@@ -3319,19 +3344,23 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="18">
       <c r="A50" s="4">
@@ -3344,24 +3373,29 @@
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="H44:H45"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="195">
   <si>
     <t>Pin #</t>
   </si>
@@ -1317,6 +1317,9 @@
   </si>
   <si>
     <t>GND</t>
+  </si>
+  <si>
+    <t>Pull-up / pull-down resistor?</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,6 +1656,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1953,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3273,7 +3279,9 @@
       <c r="I46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J46"/>
+      <c r="J46" s="32" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="4">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="197">
   <si>
     <t>Pin #</t>
   </si>
@@ -204,9 +204,6 @@
     <t>TAMPER-RTC</t>
   </si>
   <si>
-    <t>LED0</t>
-  </si>
-  <si>
     <t>PC14</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
   </si>
   <si>
     <t>OSC_OUT</t>
-  </si>
-  <si>
-    <t>OSC32 or LED1</t>
   </si>
   <si>
     <t>Required for the USB function</t>
@@ -1307,9 +1301,6 @@
     </r>
   </si>
   <si>
-    <t>GPIO x2</t>
-  </si>
-  <si>
     <t>TIM2_CH2/PB3/TRACESWO/SPI1_SCK</t>
   </si>
   <si>
@@ -1320,6 +1311,21 @@
   </si>
   <si>
     <t>Pull-up / pull-down resistor?</t>
+  </si>
+  <si>
+    <t>GPIO x2 (ILIM0, ILIM1)</t>
+  </si>
+  <si>
+    <t>GPIO x2 (EN3)</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>OSC32 or LED2</t>
+  </si>
+  <si>
+    <t>OSC32 / Green LED</t>
   </si>
 </sst>
 </file>
@@ -1959,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47:J48"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I47" activeCellId="1" sqref="I43 I47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,13 +2083,13 @@
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2097,21 +2103,23 @@
         <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2125,17 +2133,17 @@
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
@@ -2151,7 +2159,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>59</v>
@@ -2163,13 +2171,13 @@
         <v>59</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2183,7 +2191,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>59</v>
@@ -2220,13 +2228,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" thickTop="1">
@@ -2234,13 +2242,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>59</v>
@@ -2249,16 +2257,16 @@
         <v>59</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -2266,13 +2274,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>59</v>
@@ -2281,10 +2289,10 @@
         <v>59</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>59</v>
@@ -2302,20 +2310,20 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -2333,16 +2341,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2359,16 +2367,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" thickBot="1">
@@ -2385,16 +2393,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -2411,22 +2419,22 @@
         <v>15</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2443,13 +2451,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
@@ -2469,13 +2477,13 @@
         <v>17</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
@@ -2495,13 +2503,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
@@ -2521,17 +2529,17 @@
         <v>19</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -2548,17 +2556,17 @@
         <v>20</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -2572,7 +2580,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>59</v>
@@ -2583,10 +2591,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -2603,22 +2611,22 @@
         <v>22</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="J23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -2635,13 +2643,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="22"/>
@@ -2652,13 +2660,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>59</v>
@@ -2667,10 +2675,10 @@
         <v>59</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>59</v>
@@ -2681,13 +2689,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>59</v>
@@ -2696,10 +2704,10 @@
         <v>59</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>59</v>
@@ -2719,22 +2727,22 @@
         <v>24</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -2751,13 +2759,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="27"/>
@@ -2777,13 +2785,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="27"/>
@@ -2803,13 +2811,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="27"/>
@@ -2829,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>59</v>
@@ -2838,13 +2846,13 @@
         <v>28</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2861,7 +2869,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>59</v>
@@ -2887,7 +2895,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>59</v>
@@ -2913,19 +2921,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
@@ -2942,13 +2950,13 @@
         <v>31</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="3"/>
@@ -2964,7 +2972,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>59</v>
@@ -2973,14 +2981,14 @@
         <v>33</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" thickTop="1">
@@ -2988,13 +2996,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>59</v>
@@ -3003,10 +3011,10 @@
         <v>59</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>59</v>
@@ -3017,13 +3025,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>59</v>
@@ -3032,10 +3040,10 @@
         <v>59</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>59</v>
@@ -3052,7 +3060,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>59</v>
@@ -3061,14 +3069,14 @@
         <v>35</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3082,23 +3090,23 @@
         <v>47</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3112,23 +3120,23 @@
         <v>47</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3142,23 +3150,23 @@
         <v>47</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3175,22 +3183,22 @@
         <v>39</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>190</v>
+        <v>102</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3207,22 +3215,22 @@
         <v>40</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="H44" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="J44" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3239,13 +3247,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="22"/>
@@ -3259,7 +3267,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>42</v>
@@ -3274,13 +3282,13 @@
         <v>42</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3297,22 +3305,22 @@
         <v>34</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>190</v>
+        <v>102</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3329,16 +3337,16 @@
         <v>43</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="27"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" thickTop="1">
@@ -3352,7 +3360,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>59</v>
@@ -3361,10 +3369,10 @@
         <v>59</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>59</v>
@@ -3381,7 +3389,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>59</v>
@@ -3390,10 +3398,10 @@
         <v>59</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>59</v>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="201">
   <si>
     <t>Pin #</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Check if connecting to VBAT_I is fine</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -228,22 +225,7 @@
     <t>Required for the USB function</t>
   </si>
   <si>
-    <t>GND pin connections (DGND?, pin visibility)</t>
-  </si>
-  <si>
     <t>Push button</t>
-  </si>
-  <si>
-    <t>External 16 MHz crystal</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>Check if 32 kHz external crystal is needed | 2 LEDs might be sufficient</t>
-  </si>
-  <si>
-    <t>Push button or jumper? | Pushbutton footprint missing</t>
   </si>
   <si>
     <t>Orange LED</t>
@@ -554,9 +536,6 @@
     <t>SmartFusion connector</t>
   </si>
   <si>
-    <t>Check if it should be connected to the SD card</t>
-  </si>
-  <si>
     <t>PB2/BOOT1</t>
   </si>
   <si>
@@ -628,9 +607,6 @@
     <t>DXVY rail current sense</t>
   </si>
   <si>
-    <t>Check if BOOT1 needs a jumper ot to be tied LOW/HIGH | can be used as PB2</t>
-  </si>
-  <si>
     <t>GPIO / BOOT1</t>
   </si>
   <si>
@@ -799,9 +775,6 @@
   </si>
   <si>
     <t>DGND</t>
-  </si>
-  <si>
-    <t>Check if it should be connected to the SmartFusion connector instead</t>
   </si>
   <si>
     <t>SPI2_MOSI</t>
@@ -1112,9 +1085,6 @@
     <t>JTDO/TRACESWO?</t>
   </si>
   <si>
-    <t>JNTRST/PB4</t>
-  </si>
-  <si>
     <t>I2C1_SMBA</t>
   </si>
   <si>
@@ -1202,41 +1172,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Check if it should be used as PowerBoard I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C bus instead</t>
-    </r>
-  </si>
-  <si>
-    <t>Jumper</t>
-  </si>
-  <si>
     <t>Boot mode selector pin</t>
-  </si>
-  <si>
-    <t>May be used on PowerBoard instead</t>
   </si>
   <si>
     <t>TIM4_CH3</t>
@@ -1301,18 +1237,12 @@
     </r>
   </si>
   <si>
-    <t>TIM2_CH2/PB3/TRACESWO/SPI1_SCK</t>
-  </si>
-  <si>
     <t>LDO</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>Pull-up / pull-down resistor?</t>
-  </si>
-  <si>
     <t>GPIO x2 (ILIM0, ILIM1)</t>
   </si>
   <si>
@@ -1322,17 +1252,96 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>OSC32 or LED2</t>
-  </si>
-  <si>
     <t>OSC32 / Green LED</t>
+  </si>
+  <si>
+    <t>Connect to D3V3_STM</t>
+  </si>
+  <si>
+    <t>External ?? MHz crystal</t>
+  </si>
+  <si>
+    <t>Double check clock synthesis options (USB, ADC, "natural" timer, UART)</t>
+  </si>
+  <si>
+    <t>Check if 32 kHz external crystal is needed | 2 LEDs might be sufficient (design in footprint, do not populate)</t>
+  </si>
+  <si>
+    <t>OSC32 / GPIO</t>
+  </si>
+  <si>
+    <t>GND pin connections (DGND?, pin visibility) connect to DGND (also on schematic)</t>
+  </si>
+  <si>
+    <t>Push button or jumper? | Pushbutton footprint missing | One via which can fit a raster pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this as GPIO </t>
+  </si>
+  <si>
+    <t>Connect to GND via resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES: </t>
+  </si>
+  <si>
+    <t>Have at least one SmartFusion GPIO line with timer capture capability</t>
+  </si>
+  <si>
+    <t>Connect !AL signal from battery gauge to a timer capture pin</t>
+  </si>
+  <si>
+    <r>
+      <t>TIM2_CH2/PB3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRACESWO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SPI1_SCK</t>
+    </r>
+  </si>
+  <si>
+    <t>JNTRST/PB4 | Check if this needed for SWD-based programming/debugging</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>GPIO ?</t>
+  </si>
+  <si>
+    <t>JTAG/SW? | Header type: SAMTEC FSTH (2x5 50mil)</t>
+  </si>
+  <si>
+    <t>May be used on PowerBoard instead | Priority to ILIM</t>
+  </si>
+  <si>
+    <t>Check if I2C can be used for turning off/on reg3</t>
+  </si>
+  <si>
+    <t>Master external power switch with pull up/down (initial condition)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,16 +1434,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,8 +1470,18 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1561,117 +1585,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="I47" activeCellId="1" sqref="I43 I47:I48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1975,1440 +2040,1482 @@
     <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="23" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" thickTop="1">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" ht="30">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" thickTop="1">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="36"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="17">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" thickTop="1">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="17">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A40" s="17">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A41" s="17">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A42" s="17">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="6" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" thickTop="1">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="30">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="30">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="H50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A22" s="30">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="30">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="30">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A40" s="30">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="30">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A42" s="30">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J46" s="32" t="s">
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="20" t="s">
+    <row r="56" spans="1:9">
+      <c r="B56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>59</v>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I31:I33"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="I47:I48"/>
@@ -3417,31 +3524,6 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="J44:J45"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
   <si>
     <t>Pin #</t>
   </si>
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>Remap</t>
-  </si>
-  <si>
-    <t>VBAT_I</t>
-  </si>
-  <si>
-    <t>Current sense (BAT)</t>
   </si>
   <si>
     <t>Comments</t>
@@ -1255,9 +1249,6 @@
     <t>OSC32 / Green LED</t>
   </si>
   <si>
-    <t>Connect to D3V3_STM</t>
-  </si>
-  <si>
     <t>External ?? MHz crystal</t>
   </si>
   <si>
@@ -1335,6 +1326,9 @@
   </si>
   <si>
     <t>Master external power switch with pull up/down (initial condition)</t>
+  </si>
+  <si>
+    <t>XC6210 LDO</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1603,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1662,72 +1656,76 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2030,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2050,52 +2048,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="J1" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2109,23 +2107,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>181</v>
-      </c>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2">
@@ -2138,23 +2134,25 @@
         <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2168,23 +2166,23 @@
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="G5" s="22"/>
       <c r="H5" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2198,20 +2196,20 @@
         <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="2">
@@ -2224,25 +2222,25 @@
         <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>186</v>
+      <c r="J7" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2256,21 +2254,21 @@
         <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="31" t="s">
-        <v>183</v>
+        <v>56</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2287,22 +2285,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>187</v>
+        <v>149</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" thickTop="1">
@@ -2310,31 +2308,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -2342,30 +2340,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2378,20 +2376,20 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2409,16 +2407,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2435,16 +2433,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -2461,16 +2459,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2487,21 +2485,21 @@
         <v>15</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2517,17 +2515,17 @@
         <v>16</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2543,17 +2541,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2569,17 +2567,17 @@
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="36"/>
+        <v>93</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2595,17 +2593,17 @@
         <v>19</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -2622,17 +2620,17 @@
         <v>20</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2646,21 +2644,21 @@
         <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>188</v>
+        <v>106</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
@@ -2677,21 +2675,21 @@
         <v>22</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="36"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="30.75" thickBot="1">
       <c r="A24" s="2">
@@ -2707,45 +2705,45 @@
         <v>23</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickTop="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18">
@@ -2753,28 +2751,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -2791,21 +2789,21 @@
         <v>24</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="36"/>
+        <v>125</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" s="2">
@@ -2821,17 +2819,17 @@
         <v>25</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="36"/>
+        <v>126</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="A29" s="2">
@@ -2847,17 +2845,17 @@
         <v>26</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="36"/>
+        <v>127</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -2873,17 +2871,17 @@
         <v>27</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="36"/>
+        <v>119</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="2">
@@ -2899,22 +2897,22 @@
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>135</v>
+      <c r="H31" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2931,17 +2929,17 @@
         <v>29</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="2">
@@ -2957,17 +2955,17 @@
         <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="2">
@@ -2983,19 +2981,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
@@ -3012,16 +3010,16 @@
         <v>31</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="17">
@@ -3033,24 +3031,24 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>143</v>
+      <c r="D36" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" thickTop="1">
@@ -3058,28 +3056,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" thickBot="1">
@@ -3087,28 +3085,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3121,24 +3119,24 @@
       <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>152</v>
+      <c r="D39" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="37" t="s">
-        <v>197</v>
+      <c r="J39" s="23" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3152,25 +3150,25 @@
         <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3183,24 +3181,24 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>157</v>
+      <c r="D41" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
@@ -3214,25 +3212,25 @@
         <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3249,22 +3247,22 @@
         <v>39</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3281,21 +3279,21 @@
         <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="36"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="2">
@@ -3311,17 +3309,17 @@
         <v>41</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="2">
@@ -3331,26 +3329,26 @@
         <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="39" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3367,22 +3365,22 @@
         <v>34</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>198</v>
+      <c r="H47" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3399,17 +3397,17 @@
         <v>43</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" thickTop="1">
       <c r="A49" s="2">
@@ -3422,22 +3420,22 @@
         <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18">
@@ -3451,71 +3449,46 @@
         <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I31:I33"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="I47:I48"/>
@@ -3524,6 +3497,31 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="J44:J45"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="205">
   <si>
     <t>Pin #</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Required for the USB function</t>
   </si>
   <si>
-    <t>Push button</t>
-  </si>
-  <si>
-    <t>Orange LED</t>
-  </si>
-  <si>
     <t>PC13 has restrictions - check if connected properly</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
       </rPr>
       <t>SSA</t>
     </r>
-  </si>
-  <si>
-    <t>"VDDA and VSSA must be connected to VDD and VSS, respectively" OK through resistor? | Is separate STM32_A3V3 &amp; AGND needed?</t>
   </si>
   <si>
     <r>
@@ -601,9 +592,6 @@
     <t>DXVY rail current sense</t>
   </si>
   <si>
-    <t>GPIO / BOOT1</t>
-  </si>
-  <si>
     <t>TIM2_CH3</t>
   </si>
   <si>
@@ -924,9 +912,6 @@
     <t>Can be used on PowerBoard if we have enough GPIOs already | If connected to SmartFusion it would be nice to have the UART functionality</t>
   </si>
   <si>
-    <t>GPIO x3</t>
-  </si>
-  <si>
     <t>USBDM</t>
   </si>
   <si>
@@ -969,12 +954,6 @@
   </si>
   <si>
     <t>USB data signals</t>
-  </si>
-  <si>
-    <t>JTSMS-SWDIO</t>
-  </si>
-  <si>
-    <t>JTMS</t>
   </si>
   <si>
     <r>
@@ -1046,27 +1025,15 @@
     <t>Programmer header</t>
   </si>
   <si>
-    <t>JTAG/SW? | Header type?</t>
-  </si>
-  <si>
     <t>Reset signal</t>
   </si>
   <si>
-    <t>JTCK/SWCLK</t>
-  </si>
-  <si>
     <t>JTDI</t>
   </si>
   <si>
     <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
   </si>
   <si>
-    <t>JTCK</t>
-  </si>
-  <si>
-    <t>JTAG/GPIO?</t>
-  </si>
-  <si>
     <t>JTDO</t>
   </si>
   <si>
@@ -1074,9 +1041,6 @@
   </si>
   <si>
     <t>TIM3_CH1/PB4/SPI1_MISO</t>
-  </si>
-  <si>
-    <t>JTDO/TRACESWO?</t>
   </si>
   <si>
     <t>I2C1_SMBA</t>
@@ -1237,39 +1201,18 @@
     <t>GND</t>
   </si>
   <si>
-    <t>GPIO x2 (ILIM0, ILIM1)</t>
-  </si>
-  <si>
-    <t>GPIO x2 (EN3)</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
-    <t>OSC32 / Green LED</t>
-  </si>
-  <si>
     <t>External ?? MHz crystal</t>
   </si>
   <si>
     <t>Double check clock synthesis options (USB, ADC, "natural" timer, UART)</t>
   </si>
   <si>
-    <t>Check if 32 kHz external crystal is needed | 2 LEDs might be sufficient (design in footprint, do not populate)</t>
-  </si>
-  <si>
-    <t>OSC32 / GPIO</t>
-  </si>
-  <si>
     <t>GND pin connections (DGND?, pin visibility) connect to DGND (also on schematic)</t>
   </si>
   <si>
-    <t>Push button or jumper? | Pushbutton footprint missing | One via which can fit a raster pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use this as GPIO </t>
-  </si>
-  <si>
     <t>Connect to GND via resistor</t>
   </si>
   <si>
@@ -1282,13 +1225,119 @@
     <t>Connect !AL signal from battery gauge to a timer capture pin</t>
   </si>
   <si>
-    <r>
-      <t>TIM2_CH2/PB3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
+    <t>JNTRST/PB4 | Check if this needed for SWD-based programming/debugging</t>
+  </si>
+  <si>
+    <t>May be used on PowerBoard instead | Priority to ILIM</t>
+  </si>
+  <si>
+    <t>Master external power switch with pull up/down (initial condition)</t>
+  </si>
+  <si>
+    <t>XC6210 LDO</t>
+  </si>
+  <si>
+    <t>SmartFusion Connector | OSC32</t>
+  </si>
+  <si>
+    <t>OSC32 design in footprint only (not populated)</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>LED1 (GREEN)</t>
+  </si>
+  <si>
+    <t>LED2 (ORANGE) / BOOT1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>Selected a jumper instead of 'one via which can fit a raster pin'</t>
+  </si>
+  <si>
+    <t>GPIO x2 | OSC32</t>
+  </si>
+  <si>
+    <t>GPIO x3 | UART1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JTMS/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SWDIO</t>
+    </r>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JTCK/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SWCLK</t>
+    </r>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_CH2/PB3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1298,7 +1347,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1307,28 +1355,52 @@
     </r>
   </si>
   <si>
-    <t>JNTRST/PB4 | Check if this needed for SWD-based programming/debugging</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>GPIO ?</t>
-  </si>
-  <si>
-    <t>JTAG/SW? | Header type: SAMTEC FSTH (2x5 50mil)</t>
-  </si>
-  <si>
-    <t>May be used on PowerBoard instead | Priority to ILIM</t>
-  </si>
-  <si>
-    <t>Check if I2C can be used for turning off/on reg3</t>
-  </si>
-  <si>
-    <t>Master external power switch with pull up/down (initial condition)</t>
-  </si>
-  <si>
-    <t>XC6210 LDO</t>
+    <t>TRACESWO</t>
+  </si>
+  <si>
+    <t>Weak pull-up for BOOT1 = '1' on startup</t>
+  </si>
+  <si>
+    <t>GPIO+</t>
+  </si>
+  <si>
+    <t>GPIO+ x2 (ILIM0, ILIM1)</t>
+  </si>
+  <si>
+    <t>GPIO+ x2 (EN3)</t>
+  </si>
+  <si>
+    <t>ILIM0</t>
+  </si>
+  <si>
+    <t>ILIM1</t>
+  </si>
+  <si>
+    <t>EN3 (?)</t>
+  </si>
+  <si>
+    <t>PWR_ON (?)</t>
+  </si>
+  <si>
+    <t>#EXTPWR (?)</t>
+  </si>
+  <si>
+    <t>#AL/CC+</t>
+  </si>
+  <si>
+    <t>Check if I2C configurable</t>
+  </si>
+  <si>
+    <t>Check if I2C readable</t>
+  </si>
+  <si>
+    <t>Header type: SAMTEC FSTH (2x5 50mil)</t>
+  </si>
+  <si>
+    <t>Check TIM2_CH1_ETR meaning</t>
+  </si>
+  <si>
+    <t>Check if I2C can be used for turning off/on BUCK3</t>
   </si>
 </sst>
 </file>
@@ -1336,13 +1408,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,7 +1501,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1471,11 +1543,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1526,22 +1598,14 @@
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
@@ -1549,29 +1613,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -1579,31 +1621,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,10 +1638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1623,109 +1650,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1733,8 +1764,8 @@
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2028,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2038,9 +2069,9 @@
     <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2048,50 +2079,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="12" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1">
       <c r="A3" s="2">
@@ -2112,16 +2143,16 @@
       <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>198</v>
+      <c r="G3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2">
@@ -2142,21 +2173,21 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>68</v>
+      <c r="G4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2165,28 +2196,30 @@
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="17">
+      <c r="J5" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2195,24 +2228,24 @@
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="29"/>
+      <c r="F6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2227,24 +2260,24 @@
       <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="2">
+      <c r="J7" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2256,22 +2289,22 @@
       <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2284,86 +2317,84 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>67</v>
+      <c r="H9" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" thickTop="1">
+        <v>141</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>71</v>
-      </c>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2376,20 +2407,20 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2407,16 +2438,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2433,16 +2464,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -2459,16 +2490,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2485,21 +2516,21 @@
         <v>15</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="33"/>
+        <v>87</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2515,17 +2546,17 @@
         <v>16</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2541,17 +2572,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="33"/>
+        <v>89</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2567,17 +2598,17 @@
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2593,20 +2624,20 @@
         <v>19</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2620,21 +2651,21 @@
         <v>20</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2643,8 +2674,8 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>95</v>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>56</v>
@@ -2652,16 +2683,20 @@
       <c r="F22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="G22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2675,23 +2710,23 @@
         <v>22</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="30.75" thickBot="1">
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2705,30 +2740,30 @@
         <v>23</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" thickTop="1">
+      <c r="H24" s="31"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>56</v>
@@ -2736,11 +2771,11 @@
       <c r="F25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>118</v>
+      <c r="G25" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>56</v>
@@ -2751,13 +2786,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>56</v>
@@ -2766,10 +2801,10 @@
         <v>56</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
@@ -2789,21 +2824,21 @@
         <v>24</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" s="2">
@@ -2819,17 +2854,17 @@
         <v>25</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="A29" s="2">
@@ -2845,17 +2880,17 @@
         <v>26</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -2870,18 +2905,18 @@
       <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>119</v>
+      <c r="E30" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="2">
@@ -2896,23 +2931,23 @@
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>130</v>
+      <c r="E31" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>133</v>
+      <c r="H31" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2928,18 +2963,18 @@
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>131</v>
+      <c r="E32" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="2">
@@ -2954,18 +2989,18 @@
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>132</v>
+      <c r="E33" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="2">
@@ -2981,19 +3016,19 @@
         <v>32</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
@@ -3010,19 +3045,19 @@
         <v>31</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3031,8 +3066,8 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>141</v>
+      <c r="D36" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>56</v>
@@ -3040,15 +3075,15 @@
       <c r="F36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>142</v>
+      <c r="G36" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="3" t="s">
-        <v>148</v>
+      <c r="J36" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" thickTop="1">
@@ -3056,13 +3091,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>56</v>
@@ -3070,11 +3105,11 @@
       <c r="F37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>118</v>
+      <c r="G37" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>56</v>
@@ -3085,13 +3120,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>56</v>
@@ -3100,17 +3135,17 @@
         <v>56</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="17">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3119,8 +3154,8 @@
       <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>150</v>
+      <c r="D39" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>56</v>
@@ -3128,19 +3163,19 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>153</v>
+      <c r="G39" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="23" t="s">
-        <v>194</v>
+      <c r="J39" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A40" s="17">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3150,29 +3185,29 @@
         <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>151</v>
+      <c r="F40" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>154</v>
+        <v>91</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="17">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3181,28 +3216,26 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>155</v>
+      <c r="D41" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>155</v>
+      <c r="F41" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3212,25 +3245,25 @@
         <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>157</v>
+      <c r="F42" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>191</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3247,22 +3280,22 @@
         <v>39</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3275,25 +3308,25 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="2">
@@ -3305,21 +3338,21 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="33"/>
+        <v>153</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="2">
@@ -3343,16 +3376,18 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="I46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J46" s="24" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="2">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3364,27 +3399,27 @@
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>168</v>
+      <c r="E47" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>195</v>
+      <c r="H47" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="2">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3396,20 +3431,20 @@
       <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>169</v>
+      <c r="E48" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" thickTop="1">
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="30"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" thickTop="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3420,7 +3455,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>56</v>
@@ -3429,16 +3464,16 @@
         <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18">
+    <row r="50" spans="1:10" ht="18">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3449,7 +3484,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>56</v>
@@ -3458,37 +3493,88 @@
         <v>56</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="I52" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="I54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="I55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="I56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="1" t="s">
-        <v>197</v>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="I57" s="44" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="I47:I48"/>
@@ -3516,6 +3602,8 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="205">
   <si>
     <t>Pin #</t>
   </si>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>OSC_OUT</t>
-  </si>
-  <si>
-    <t>Required for the USB function</t>
-  </si>
-  <si>
-    <t>PC13 has restrictions - check if connected properly</t>
   </si>
   <si>
     <r>
@@ -909,9 +903,6 @@
     <t>USART1_RX(8)</t>
   </si>
   <si>
-    <t>Can be used on PowerBoard if we have enough GPIOs already | If connected to SmartFusion it would be nice to have the UART functionality</t>
-  </si>
-  <si>
     <t>USBDM</t>
   </si>
   <si>
@@ -1031,24 +1022,15 @@
     <t>JTDI</t>
   </si>
   <si>
-    <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
-  </si>
-  <si>
     <t>JTDO</t>
   </si>
   <si>
     <t>JNTRST</t>
   </si>
   <si>
-    <t>TIM3_CH1/PB4/SPI1_MISO</t>
-  </si>
-  <si>
     <t>I2C1_SMBA</t>
   </si>
   <si>
-    <t>TIM3_CH2/SPI1_MOSI</t>
-  </si>
-  <si>
     <t>USART1_RX</t>
   </si>
   <si>
@@ -1081,53 +1063,6 @@
   </si>
   <si>
     <t>I2C1_SDA</t>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> signals</t>
-    </r>
   </si>
   <si>
     <t>Boot mode selector pin</t>
@@ -1204,18 +1139,6 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>External ?? MHz crystal</t>
-  </si>
-  <si>
-    <t>Double check clock synthesis options (USB, ADC, "natural" timer, UART)</t>
-  </si>
-  <si>
-    <t>GND pin connections (DGND?, pin visibility) connect to DGND (also on schematic)</t>
-  </si>
-  <si>
-    <t>Connect to GND via resistor</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOTES: </t>
   </si>
   <si>
@@ -1225,12 +1148,6 @@
     <t>Connect !AL signal from battery gauge to a timer capture pin</t>
   </si>
   <si>
-    <t>JNTRST/PB4 | Check if this needed for SWD-based programming/debugging</t>
-  </si>
-  <si>
-    <t>May be used on PowerBoard instead | Priority to ILIM</t>
-  </si>
-  <si>
     <t>Master external power switch with pull up/down (initial condition)</t>
   </si>
   <si>
@@ -1249,9 +1166,6 @@
     <t>LED1 (GREEN)</t>
   </si>
   <si>
-    <t>LED2 (ORANGE) / BOOT1</t>
-  </si>
-  <si>
     <t>LED2</t>
   </si>
   <si>
@@ -1261,9 +1175,6 @@
     <t>GPIO x2 | OSC32</t>
   </si>
   <si>
-    <t>GPIO x3 | UART1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1314,15 +1225,45 @@
     <t>SWCLK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TIM2_CH2/PB3</t>
-    </r>
+    <t>TRACESWO</t>
+  </si>
+  <si>
+    <t>Weak pull-up for BOOT1 = '1' on startup</t>
+  </si>
+  <si>
+    <t>GPIO+</t>
+  </si>
+  <si>
+    <t>ILIM0</t>
+  </si>
+  <si>
+    <t>ILIM1</t>
+  </si>
+  <si>
+    <t>EN3 (?)</t>
+  </si>
+  <si>
+    <t>PWR_ON (?)</t>
+  </si>
+  <si>
+    <t>#AL/CC+</t>
+  </si>
+  <si>
+    <t>Header type: SAMTEC FSTH (2x5 50mil)</t>
+  </si>
+  <si>
+    <t>External 16 MHz crystal</t>
+  </si>
+  <si>
+    <t>Main clock source</t>
+  </si>
+  <si>
+    <t>USB clock requirements restrict SYSCLK to be 48 MHz or 72 MHz</t>
+  </si>
+  <si>
+    <t>LED2 (ORANGE) &amp; BOOT1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1331,6 +1272,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>TIM3_CH2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SPI1_MOSI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM3_CH1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -1342,6 +1315,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>PB4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SPI1_MISO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_CH1_ETR/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SPI1_NSS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_CH2/PB3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>TRACESWO</t>
     </r>
     <r>
@@ -1355,52 +1393,137 @@
     </r>
   </si>
   <si>
-    <t>TRACESWO</t>
-  </si>
-  <si>
-    <t>Weak pull-up for BOOT1 = '1' on startup</t>
-  </si>
-  <si>
-    <t>GPIO+</t>
-  </si>
-  <si>
-    <t>GPIO+ x2 (ILIM0, ILIM1)</t>
-  </si>
-  <si>
-    <t>GPIO+ x2 (EN3)</t>
-  </si>
-  <si>
-    <t>ILIM0</t>
-  </si>
-  <si>
-    <t>ILIM1</t>
-  </si>
-  <si>
-    <t>EN3 (?)</t>
-  </si>
-  <si>
-    <t>PWR_ON (?)</t>
-  </si>
-  <si>
-    <t>#EXTPWR (?)</t>
-  </si>
-  <si>
-    <t>#AL/CC+</t>
-  </si>
-  <si>
-    <t>Check if I2C configurable</t>
-  </si>
-  <si>
-    <t>Check if I2C readable</t>
-  </si>
-  <si>
-    <t>Header type: SAMTEC FSTH (2x5 50mil)</t>
-  </si>
-  <si>
-    <t>Check TIM2_CH1_ETR meaning</t>
-  </si>
-  <si>
-    <t>Check if I2C can be used for turning off/on BUCK3</t>
+    <t>MASTER SWITCH</t>
+  </si>
+  <si>
+    <t>LTC2942-1</t>
+  </si>
+  <si>
+    <t>3-pin JUMPER</t>
+  </si>
+  <si>
+    <t>Set to 100 mA by default</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals | USART</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <t>Master switch</t>
+  </si>
+  <si>
+    <t>#EXTPWR</t>
+  </si>
+  <si>
+    <t>LTC3677</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Always on</t>
+  </si>
+  <si>
+    <t>SWD signal</t>
+  </si>
+  <si>
+    <t>Power switch for ALL rails</t>
+  </si>
+  <si>
+    <t>EN3</t>
+  </si>
+  <si>
+    <t>Battery Gauge #AL/CC</t>
   </si>
 </sst>
 </file>
@@ -1500,15 +1623,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1543,11 +1666,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1595,15 +1718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1613,12 +1727,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1628,9 +1748,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,9 +1770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,16 +1794,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -1696,7 +1807,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,57 +1833,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1764,8 +1883,8 @@
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2057,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:J45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2069,62 +2188,62 @@
     <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" thickBot="1">
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2143,18 +2262,18 @@
       <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>174</v>
+      <c r="G3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2173,21 +2292,19 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2199,27 +2316,27 @@
       <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>176</v>
+      <c r="H5" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2231,21 +2348,21 @@
       <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="15">
+      <c r="H6" s="43"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2260,24 +2377,24 @@
       <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A8" s="15">
+      <c r="H7" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2289,20 +2406,18 @@
       <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2317,23 +2432,23 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>177</v>
+      <c r="H9" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
@@ -2341,60 +2456,60 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2407,20 +2522,20 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2437,17 +2552,17 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>75</v>
+      <c r="E13" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2463,17 +2578,17 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>76</v>
+      <c r="E14" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -2489,17 +2604,17 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>77</v>
+      <c r="E15" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2515,22 +2630,22 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
+      <c r="E16" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2545,18 +2660,18 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>84</v>
+      <c r="E17" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2571,18 +2686,18 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>85</v>
+      <c r="E18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2597,18 +2712,18 @@
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>86</v>
+      <c r="E19" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2623,18 +2738,18 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2650,22 +2765,22 @@
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2675,7 +2790,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>56</v>
@@ -2683,17 +2798,17 @@
       <c r="F22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>190</v>
+      <c r="H22" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2709,22 +2824,22 @@
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="I23" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="30">
       <c r="A24" s="2">
@@ -2739,31 +2854,31 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>56</v>
@@ -2771,28 +2886,28 @@
       <c r="F25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>114</v>
+      <c r="G25" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="18.75" thickBot="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>56</v>
@@ -2801,16 +2916,16 @@
         <v>56</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2823,24 +2938,24 @@
       <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>118</v>
+      <c r="E27" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="30">
+        <v>119</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2853,20 +2968,20 @@
       <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>119</v>
+      <c r="E28" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="1:10" ht="30">
+        <v>120</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2879,20 +2994,20 @@
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>120</v>
+      <c r="E29" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+        <v>121</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2905,21 +3020,21 @@
       <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>115</v>
+      <c r="E30" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="2">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2931,27 +3046,25 @@
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>126</v>
+      <c r="E31" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>129</v>
-      </c>
+      <c r="H31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="2">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2963,21 +3076,25 @@
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>127</v>
+      <c r="E32" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="30"/>
+      <c r="H32" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="2">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2989,18 +3106,22 @@
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>128</v>
+      <c r="E33" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="30"/>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="2">
@@ -3015,20 +3136,20 @@
       <c r="D34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>133</v>
+      <c r="E34" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
@@ -3044,20 +3165,20 @@
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>132</v>
+      <c r="E35" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="15">
+      <c r="A36" s="25">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3067,7 +3188,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>56</v>
@@ -3075,15 +3196,17 @@
       <c r="F36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="22" t="s">
-        <v>202</v>
+      <c r="G36" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" thickTop="1">
@@ -3091,13 +3214,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>56</v>
@@ -3105,11 +3228,11 @@
       <c r="F37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>114</v>
+      <c r="G37" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>56</v>
@@ -3120,13 +3243,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>56</v>
@@ -3135,17 +3258,17 @@
         <v>56</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="15">
+      <c r="A39" s="25">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3155,7 +3278,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>56</v>
@@ -3163,19 +3286,21 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="22" t="s">
-        <v>202</v>
+      <c r="G39" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3185,29 +3310,27 @@
         <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="H40" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="15">
+      <c r="A41" s="25">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3216,26 +3339,30 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>144</v>
+      <c r="D41" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A42" s="15">
+      <c r="G41" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30.75" thickTop="1">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3245,28 +3372,26 @@
         <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F42" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3280,25 +3405,23 @@
         <v>39</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="19" t="s">
+      <c r="H43" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3308,27 +3431,27 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>150</v>
+      <c r="E44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>146</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3338,23 +3461,23 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>149</v>
+      <c r="E45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>147</v>
+      </c>
+      <c r="H45" s="43"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3376,18 +3499,16 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>114</v>
+      <c r="H46" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>167</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3399,27 +3520,27 @@
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="38" t="s">
-        <v>156</v>
+      <c r="E47" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>172</v>
+      <c r="H47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3431,18 +3552,20 @@
       <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="38" t="s">
-        <v>157</v>
+      <c r="E48" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
+      <c r="H48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
       <c r="A49" s="2">
@@ -3455,7 +3578,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>56</v>
@@ -3464,10 +3587,10 @@
         <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>56</v>
@@ -3484,98 +3607,96 @@
         <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="I52" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="I54" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A55" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="I55" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="I52" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="J52" s="18" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="I56" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="I53" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="I54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="I55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="I56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="I57" s="44" t="s">
-        <v>199</v>
+    <row r="57" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A57" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="I57" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="I58" s="38" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="35">
+    <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A57:E57"/>
-    <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="H34:H35"/>
@@ -3586,9 +3707,6 @@
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I31:I33"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="H16:H19"/>
@@ -3604,6 +3722,7 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="208">
   <si>
     <t>Pin #</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>#AL/CC+</t>
   </si>
   <si>
-    <t>Header type: SAMTEC FSTH (2x5 50mil)</t>
-  </si>
-  <si>
     <t>External 16 MHz crystal</t>
   </si>
   <si>
@@ -1431,6 +1428,39 @@
     </r>
   </si>
   <si>
+    <t>Master switch</t>
+  </si>
+  <si>
+    <t>#EXTPWR</t>
+  </si>
+  <si>
+    <t>LTC3677</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Always on</t>
+  </si>
+  <si>
+    <t>SWD signal</t>
+  </si>
+  <si>
+    <t>Power switch for ALL rails</t>
+  </si>
+  <si>
+    <t>EN3</t>
+  </si>
+  <si>
+    <t>Battery Gauge #AL/CC</t>
+  </si>
+  <si>
+    <t>Jumper to use as JTDI?</t>
+  </si>
+  <si>
+    <t>Jumper to use as JNTRST?</t>
+  </si>
+  <si>
     <r>
       <t>I</t>
     </r>
@@ -1495,35 +1525,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> signals</t>
-    </r>
-  </si>
-  <si>
-    <t>Master switch</t>
-  </si>
-  <si>
-    <t>#EXTPWR</t>
-  </si>
-  <si>
-    <t>LTC3677</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>Always on</t>
-  </si>
-  <si>
-    <t>SWD signal</t>
-  </si>
-  <si>
-    <t>Power switch for ALL rails</t>
-  </si>
-  <si>
-    <t>EN3</t>
-  </si>
-  <si>
-    <t>Battery Gauge #AL/CC</t>
+      <t xml:space="preserve"> signals | GPIO signals</t>
+    </r>
+  </si>
+  <si>
+    <t>I2C pullups</t>
+  </si>
+  <si>
+    <t>Pull-up resistors</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1711,15 +1720,6 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
@@ -1741,6 +1741,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1748,9 +1787,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1804,9 +1843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,45 +1850,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -1868,14 +1898,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2176,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44:I45"/>
+      <selection activeCell="A44" sqref="A44:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2243,7 +2283,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="30.75" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2273,7 +2313,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2292,16 +2332,16 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1">
       <c r="A5" s="16">
@@ -2325,17 +2365,17 @@
       <c r="G5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -2357,12 +2397,12 @@
       <c r="G6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A7" s="25">
+      <c r="H6" s="40"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2383,18 +2423,18 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2415,9 +2455,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2479,7 +2519,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2509,7 +2549,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2639,13 +2679,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2669,9 +2709,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2695,9 +2735,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2721,9 +2761,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2779,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2804,15 +2844,15 @@
       <c r="H22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>185</v>
+      <c r="I22" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2833,16 +2873,18 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="2">
+      <c r="J23" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2863,11 +2905,11 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:10" ht="18">
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" thickTop="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2947,13 +2989,13 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="34"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="2">
@@ -2977,9 +3019,9 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="2">
@@ -3003,9 +3045,9 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="2">
@@ -3029,11 +3071,11 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H30" s="39"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickTop="1">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -3052,18 +3094,18 @@
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I31" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -3082,16 +3124,16 @@
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="40"/>
+        <v>196</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="14">
@@ -3112,16 +3154,16 @@
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="J33" s="40"/>
+        <v>194</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="2">
@@ -3145,14 +3187,14 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3174,11 +3216,11 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="25">
+      <c r="H35" s="34"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="24">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3199,17 +3241,15 @@
       <c r="G36" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" thickTop="1">
+      <c r="I36" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3238,7 +3278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" thickBot="1">
+    <row r="38" spans="1:10" ht="18">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3267,8 +3307,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="25">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A39" s="24">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3286,18 +3326,16 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>181</v>
-      </c>
+      <c r="I39" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A40" s="14">
@@ -3315,22 +3353,24 @@
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" s="26"/>
+      <c r="H40" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3345,23 +3385,21 @@
       <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30.75" thickTop="1">
+      <c r="I41" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A42" s="14">
         <v>40</v>
       </c>
@@ -3377,21 +3415,23 @@
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3408,21 +3448,21 @@
         <v>142</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2">
+      <c r="H43" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3431,7 +3471,7 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3443,16 +3483,18 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2">
+      <c r="I44" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3461,7 +3503,7 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -3473,11 +3515,11 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H45" s="40"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3499,13 +3541,13 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>192</v>
+      <c r="H46" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="26"/>
+      <c r="J46" s="25"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="14">
@@ -3520,23 +3562,23 @@
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>149</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="I47" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="J47" s="35" t="s">
+      <c r="I47" s="33" t="s">
         <v>193</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3552,20 +3594,20 @@
       <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>150</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
       <c r="A49" s="2">
@@ -3626,70 +3668,75 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="35" t="s">
         <v>176</v>
       </c>
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="35" t="s">
         <v>177</v>
       </c>
       <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="I54" s="38" t="s">
+      <c r="B54" s="21"/>
+      <c r="I54" s="35" t="s">
         <v>178</v>
       </c>
       <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
       <c r="I55" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="I56" s="45" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="I56" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="J56" s="25" t="s">
-        <v>200</v>
+      <c r="J56" s="24" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="I57" s="38" t="s">
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="I57" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="I58" s="38" t="s">
-        <v>190</v>
+      <c r="I58" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="209">
   <si>
     <t>Pin #</t>
   </si>
@@ -1533,6 +1533,9 @@
   </si>
   <si>
     <t>Pull-up resistors</t>
+  </si>
+  <si>
+    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?)</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1792,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1917,6 +1920,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2219,7 +2223,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A45"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,7 +3167,9 @@
       <c r="I33" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="37"/>
+      <c r="J33" s="47" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1">
       <c r="A34" s="2">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1745,19 +1745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1783,6 +1770,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1792,7 +1788,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1833,9 +1829,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1869,58 +1862,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2222,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2242,50 +2241,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1">
       <c r="A3" s="2">
@@ -2306,16 +2305,16 @@
       <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>161</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2">
@@ -2342,13 +2341,13 @@
       <c r="H4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2366,21 +2365,21 @@
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2398,15 +2397,15 @@
       <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2427,18 +2426,18 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2459,9 +2458,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2485,13 +2484,13 @@
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2523,7 +2522,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2553,7 +2552,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2683,13 +2682,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2713,9 +2712,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="32"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2739,9 +2738,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="32"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2765,9 +2764,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="32"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2824,7 +2823,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2842,21 +2841,21 @@
       <c r="F22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A23" s="14">
+      <c r="A23" s="27">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2877,18 +2876,18 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="42" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="14">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2909,9 +2908,9 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="46"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickTop="1">
       <c r="A25" s="2">
@@ -2942,7 +2941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" thickBot="1">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2993,15 +2992,15 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3023,11 +3022,11 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3049,11 +3048,11 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3075,12 +3074,12 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A31" s="14">
+      <c r="H30" s="48"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="27">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3098,19 +3097,19 @@
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="J31" s="37"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="14">
+      <c r="A32" s="27">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3128,19 +3127,19 @@
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="J32" s="37"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="14">
+      <c r="A33" s="27">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3158,16 +3157,16 @@
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3193,10 +3192,10 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="40" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3222,11 +3221,11 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="24">
+      <c r="A36" s="23">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3244,16 +3243,16 @@
       <c r="F36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" ht="18">
       <c r="A37" s="2">
@@ -3314,7 +3313,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="24">
+      <c r="A39" s="23">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3332,19 +3331,19 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A40" s="14">
+      <c r="A40" s="27">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3359,16 +3358,16 @@
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="30" t="s">
         <v>195</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -3376,7 +3375,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="24">
+      <c r="A41" s="27">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3385,28 +3384,28 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A42" s="14">
+      <c r="A42" s="27">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3421,16 +3420,16 @@
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -3438,7 +3437,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="2">
+      <c r="A43" s="27">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3456,19 +3455,19 @@
       <c r="F43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="J43" s="24"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A44" s="14">
+      <c r="A44" s="27">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3477,7 +3476,7 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3489,18 +3488,18 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="42" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="14">
+      <c r="A45" s="27">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3509,7 +3508,7 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -3521,12 +3520,12 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="46"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="2">
+      <c r="A46" s="27">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3547,16 +3546,16 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="23" t="s">
         <v>191</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="25"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="14">
+      <c r="A47" s="27">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3568,27 +3567,27 @@
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>149</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="14">
+      <c r="A48" s="27">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3600,23 +3599,23 @@
       <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>150</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="39"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A49" s="2">
+      <c r="A49" s="27">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3674,26 +3673,26 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="35" t="s">
+      <c r="I52" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="J52" s="16"/>
+      <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="35" t="s">
+      <c r="I53" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J53" s="16"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="I54" s="35" t="s">
+      <c r="B54" s="20"/>
+      <c r="I54" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J54" s="16"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
       <c r="A55" s="36" t="s">
@@ -3703,10 +3702,10 @@
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="16"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="36" t="s">
@@ -3716,10 +3715,10 @@
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
-      <c r="I56" s="41" t="s">
+      <c r="I56" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="23" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3731,32 +3730,37 @@
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
-      <c r="I57" s="35" t="s">
+      <c r="I57" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="I58" s="35" t="s">
+      <c r="I58" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
@@ -3767,21 +3771,16 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="210">
   <si>
     <t>Pin #</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>GND</t>
   </si>
   <si>
-    <t>LED1</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOTES: </t>
   </si>
   <si>
@@ -1163,9 +1160,6 @@
     <t>Jumper</t>
   </si>
   <si>
-    <t>LED1 (GREEN)</t>
-  </si>
-  <si>
     <t>LED2</t>
   </si>
   <si>
@@ -1228,12 +1222,6 @@
     <t>TRACESWO</t>
   </si>
   <si>
-    <t>Weak pull-up for BOOT1 = '1' on startup</t>
-  </si>
-  <si>
-    <t>GPIO+</t>
-  </si>
-  <si>
     <t>ILIM0</t>
   </si>
   <si>
@@ -1443,24 +1431,12 @@
     <t>Always on</t>
   </si>
   <si>
-    <t>SWD signal</t>
-  </si>
-  <si>
     <t>Power switch for ALL rails</t>
   </si>
   <si>
-    <t>EN3</t>
-  </si>
-  <si>
     <t>Battery Gauge #AL/CC</t>
   </si>
   <si>
-    <t>Jumper to use as JTDI?</t>
-  </si>
-  <si>
-    <t>Jumper to use as JNTRST?</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -1535,7 +1511,122 @@
     <t>Pull-up resistors</t>
   </si>
   <si>
-    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?)</t>
+    <r>
+      <t>Orange U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 2.0V I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FWD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 4mA | Weak pull-up for BOOT1 = '1' on startup</t>
+    </r>
+  </si>
+  <si>
+    <t>LED1 (GREEN) | JTAG</t>
+  </si>
+  <si>
+    <t>MAX9938</t>
+  </si>
+  <si>
+    <t>SWD | JTAG</t>
+  </si>
+  <si>
+    <t>GPIO+ | JTAG</t>
+  </si>
+  <si>
+    <t>Optionally JTAG</t>
+  </si>
+  <si>
+    <r>
+      <t>Green U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 2.1V I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FWD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 10mA | Optionally  JTAG</t>
+    </r>
+  </si>
+  <si>
+    <t>LED1 | Programmer header</t>
+  </si>
+  <si>
+    <t>SmartFusion connector | Programmer header</t>
+  </si>
+  <si>
+    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?) | Add MCO testpoint</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1715,15 +1806,6 @@
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
@@ -1786,9 +1868,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1859,9 +1941,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,15 +1951,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -1898,13 +1973,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1917,8 +1992,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2222,7 +2300,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2241,52 +2319,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" thickBot="1">
+      <c r="G2" s="44"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2309,14 +2387,14 @@
         <v>70</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2335,18 +2413,17 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickTop="1">
+      <c r="H4" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -2368,14 +2445,14 @@
       <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2400,9 +2477,9 @@
       <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="23">
@@ -2426,14 +2503,14 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>183</v>
+      <c r="H7" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2458,9 +2535,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2485,13 +2562,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
@@ -2522,7 +2599,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2552,7 +2629,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2576,7 +2653,9 @@
       <c r="G12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
@@ -2604,6 +2683,9 @@
       <c r="G13" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="H13" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
       </c>
@@ -2630,6 +2712,9 @@
       <c r="G14" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="H14" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
       </c>
@@ -2656,6 +2741,9 @@
       <c r="G15" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="H15" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
       </c>
@@ -2682,13 +2770,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2712,9 +2800,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2738,9 +2826,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2764,9 +2852,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2790,7 +2878,9 @@
       <c r="G20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2817,12 +2907,14 @@
       <c r="G21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="18">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -2845,17 +2937,17 @@
         <v>21</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A23" s="27">
+        <v>164</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2876,18 +2968,16 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="27">
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="26">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2908,11 +2998,11 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" thickTop="1">
+      <c r="H24" s="42"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2992,13 +3082,13 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="44"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3022,9 +3112,9 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="44"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3048,11 +3138,11 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="44"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3074,12 +3164,12 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="27">
+      <c r="H30" s="45"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="26">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3100,16 +3190,18 @@
       <c r="G31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="29"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="27">
+      <c r="H31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A32" s="26">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3130,16 +3222,16 @@
       <c r="G32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="27">
+      <c r="H32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="26">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3157,20 +3249,17 @@
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickTop="1">
+      <c r="H33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3192,10 +3281,10 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="37" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3221,8 +3310,8 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="23">
@@ -3235,7 +3324,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>56</v>
@@ -3244,13 +3333,13 @@
         <v>33</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>199</v>
+      <c r="I36" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="J36" s="23"/>
     </row>
@@ -3312,7 +3401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="23">
         <v>37</v>
       </c>
@@ -3323,7 +3412,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>56</v>
@@ -3332,18 +3421,18 @@
         <v>35</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="23" t="s">
-        <v>199</v>
+      <c r="I39" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A40" s="27">
+    <row r="40" spans="1:10" ht="30">
+      <c r="A40" s="26">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3352,30 +3441,30 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="19" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A41" s="27">
+      <c r="H40" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3384,28 +3473,28 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="23" t="s">
-        <v>199</v>
+      <c r="I41" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A42" s="27">
+    <row r="42" spans="1:10" ht="30">
+      <c r="A42" s="26">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3414,30 +3503,30 @@
       <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="19" t="s">
         <v>141</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H42" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" s="26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="27">
+      <c r="J42" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A43" s="26">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3453,21 +3542,21 @@
         <v>142</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3488,18 +3577,18 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="42" t="s">
-        <v>207</v>
+      <c r="I44" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3520,12 +3609,12 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3547,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
@@ -3555,7 +3644,7 @@
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3577,17 +3666,17 @@
         <v>34</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>192</v>
+        <v>172</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3609,13 +3698,13 @@
         <v>43</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
+        <v>173</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3673,75 +3762,77 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="28" t="s">
-        <v>176</v>
+      <c r="I52" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="28" t="s">
-        <v>177</v>
+      <c r="I53" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="I54" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A55" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="I54" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="36" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="I55" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="I55" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="36" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="I56" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A57" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="I56" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="I57" s="28" t="s">
-        <v>180</v>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="I57" s="27" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="I58" s="28" t="s">
-        <v>189</v>
+      <c r="I58" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1387,9 +1387,6 @@
     <t>3-pin JUMPER</t>
   </si>
   <si>
-    <t>Set to 100 mA by default</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -1570,7 +1567,16 @@
     <t>GPIO+ | JTAG</t>
   </si>
   <si>
-    <t>Optionally JTAG</t>
+    <t>LED1 | Programmer header</t>
+  </si>
+  <si>
+    <t>SmartFusion connector | Programmer header</t>
+  </si>
+  <si>
+    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?) | Add MCO testpoint</t>
+  </si>
+  <si>
+    <t>Optional JTAG functionality</t>
   </si>
   <si>
     <r>
@@ -1616,17 +1622,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 10mA | Optionally  JTAG</t>
-    </r>
-  </si>
-  <si>
-    <t>LED1 | Programmer header</t>
-  </si>
-  <si>
-    <t>SmartFusion connector | Programmer header</t>
-  </si>
-  <si>
-    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?) | Add MCO testpoint</t>
+      <t xml:space="preserve"> = 10mA | Optional JTAG functionality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 100 mA by default</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1870,7 +1893,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1960,9 +1983,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2299,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2319,50 +2339,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
@@ -2417,10 +2437,10 @@
         <v>57</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2445,13 +2465,13 @@
       <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2477,9 +2497,9 @@
       <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="23">
@@ -2503,13 +2523,13 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2535,9 +2555,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2599,7 +2619,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2629,7 +2649,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2654,7 +2674,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
@@ -2684,7 +2704,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
@@ -2713,7 +2733,7 @@
         <v>77</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
@@ -2742,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2770,13 +2790,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2800,9 +2820,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2826,9 +2846,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="41"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2852,9 +2872,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2879,7 +2899,7 @@
         <v>93</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>95</v>
@@ -2908,7 +2928,7 @@
         <v>94</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>96</v>
@@ -2943,7 +2963,7 @@
         <v>180</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2968,13 +2988,13 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="26">
@@ -2998,9 +3018,9 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
@@ -3082,13 +3102,13 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="41"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3112,9 +3132,9 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="41"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3138,9 +3158,9 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="41"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3164,9 +3184,9 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="41"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="26">
@@ -3191,13 +3211,13 @@
         <v>28</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1">
@@ -3226,7 +3246,7 @@
         <v>89</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J32" s="28"/>
     </row>
@@ -3256,7 +3276,7 @@
         <v>89</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3281,10 +3301,10 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="36" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3310,8 +3330,8 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="23">
@@ -3339,7 +3359,7 @@
         <v>137</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J36" s="23"/>
     </row>
@@ -3427,7 +3447,7 @@
         <v>137</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J39" s="23"/>
     </row>
@@ -3454,13 +3474,13 @@
         <v>36</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
@@ -3489,7 +3509,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J41" s="23"/>
     </row>
@@ -3515,14 +3535,14 @@
       <c r="G42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="46" t="s">
-        <v>208</v>
+      <c r="H42" s="45" t="s">
+        <v>205</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
@@ -3551,7 +3571,7 @@
         <v>186</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J43" s="23"/>
     </row>
@@ -3577,14 +3597,14 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="J44" s="39" t="s">
-        <v>199</v>
+      <c r="I44" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
@@ -3609,11 +3629,11 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H45" s="37"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickTop="1">
       <c r="A46" s="26">
         <v>44</v>
       </c>
@@ -3643,7 +3663,7 @@
       </c>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="26">
         <v>45</v>
       </c>
@@ -3668,14 +3688,14 @@
       <c r="H47" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" s="34" t="s">
+      <c r="I47" s="34" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J47" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="26">
         <v>46</v>
       </c>
@@ -3700,10 +3720,10 @@
       <c r="H48" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" thickTop="1">
+      <c r="I48" s="34"/>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:10" ht="18">
       <c r="A49" s="26">
         <v>47</v>
       </c>
@@ -3782,7 +3802,7 @@
         <v>174</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
@@ -3794,7 +3814,7 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="I55" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J55" s="15"/>
     </row>
@@ -3810,7 +3830,7 @@
         <v>175</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickTop="1">
@@ -3832,7 +3852,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="208">
   <si>
     <t>Pin #</t>
   </si>
@@ -1500,12 +1500,6 @@
       </rPr>
       <t xml:space="preserve"> signals | GPIO signals</t>
     </r>
-  </si>
-  <si>
-    <t>I2C pullups</t>
-  </si>
-  <si>
-    <t>Pull-up resistors</t>
   </si>
   <si>
     <r>
@@ -1656,17 +1650,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1763,17 +1750,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1796,7 +1778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1850,32 +1832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1884,14 +1840,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1901,10 +1865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1913,16 +1877,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,7 +1895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1940,20 +1904,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1967,21 +1928,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1993,39 +1955,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2319,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2339,50 +2300,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
@@ -2433,13 +2394,13 @@
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2468,7 +2429,7 @@
       <c r="H5" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>166</v>
       </c>
       <c r="J5" s="34" t="s">
@@ -2498,11 +2459,11 @@
         <v>61</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2534,7 +2495,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2619,7 +2580,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2649,7 +2610,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2673,8 +2634,8 @@
       <c r="G12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>201</v>
+      <c r="H12" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
@@ -2703,8 +2664,8 @@
       <c r="G13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>201</v>
+      <c r="H13" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
@@ -2732,8 +2693,8 @@
       <c r="G14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>201</v>
+      <c r="H14" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
@@ -2761,8 +2722,8 @@
       <c r="G15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>201</v>
+      <c r="H15" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2796,7 +2757,7 @@
       <c r="I16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2822,7 +2783,7 @@
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2848,7 +2809,7 @@
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2874,7 +2835,7 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2898,8 +2859,8 @@
       <c r="G20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>201</v>
+      <c r="H20" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>95</v>
@@ -2927,8 +2888,8 @@
       <c r="G21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>201</v>
+      <c r="H21" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>96</v>
@@ -2959,15 +2920,15 @@
       <c r="H22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>199</v>
+      <c r="J22" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2988,16 +2949,16 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3018,9 +2979,9 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="41"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="40"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
@@ -3108,7 +3069,7 @@
       <c r="I27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3134,7 +3095,7 @@
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3160,7 +3121,7 @@
       </c>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3184,12 +3145,12 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3207,21 +3168,21 @@
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="21" t="s">
         <v>194</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3239,7 +3200,7 @@
       <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="30" t="s">
@@ -3251,7 +3212,7 @@
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3269,13 +3230,13 @@
       <c r="F33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="25" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3334,7 +3295,7 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3355,13 +3316,13 @@
       <c r="G36" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J36" s="23"/>
+      <c r="I36" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="18">
       <c r="A37" s="2">
@@ -3422,7 +3383,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3440,19 +3401,19 @@
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J39" s="23"/>
+      <c r="I39" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3470,21 +3431,21 @@
       <c r="F40" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>208</v>
+      <c r="H40" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="26">
+      <c r="A41" s="25">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3502,19 +3463,19 @@
       <c r="F41" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J41" s="23"/>
+      <c r="I41" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3532,21 +3493,21 @@
       <c r="F42" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A43" s="26">
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="25">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3564,19 +3525,19 @@
       <c r="F43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A44" s="26">
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1">
+      <c r="A44" s="25">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3600,15 +3561,13 @@
       <c r="H44" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="35" t="s">
+      <c r="I44" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="26">
+      <c r="J44" s="38"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="25">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3630,11 +3589,11 @@
         <v>147</v>
       </c>
       <c r="H45" s="37"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="39"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A46" s="26">
+      <c r="I45" s="45"/>
+      <c r="J45" s="38"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="25">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3655,16 +3614,16 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>187</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="26">
+      <c r="A47" s="25">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3676,27 +3635,27 @@
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>149</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="24" t="s">
         <v>172</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="26">
+      <c r="A48" s="25">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3708,23 +3667,23 @@
       <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>150</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="24" t="s">
         <v>173</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" ht="18">
-      <c r="A49" s="26">
+      <c r="A49" s="25">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3801,7 +3760,7 @@
       <c r="I54" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3829,31 +3788,29 @@
       <c r="I56" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="33" t="s">
+    <row r="57" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
       <c r="I57" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="15.75" thickTop="1">
       <c r="I58" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="21" t="s">
-        <v>197</v>
-      </c>
+      <c r="B59" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
   <si>
     <t>Pin #</t>
   </si>
@@ -1778,7 +1778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1832,6 +1832,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1849,6 +1862,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1857,7 +1883,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1936,9 +1962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,7 +1991,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
@@ -1977,7 +2000,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2280,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2300,50 +2329,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
@@ -2426,13 +2455,13 @@
       <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2458,9 +2487,9 @@
       <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="22">
@@ -2484,13 +2513,13 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2516,9 +2545,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2580,7 +2609,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2610,7 +2639,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2751,13 +2780,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2781,9 +2810,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2807,9 +2836,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2833,9 +2862,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="38"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2949,13 +2978,13 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="38"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="25">
@@ -2979,9 +3008,9 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
@@ -3063,13 +3092,13 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3093,9 +3122,9 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="38"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3119,9 +3148,9 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="38"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3145,9 +3174,9 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="38"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="25">
@@ -3177,7 +3206,7 @@
       <c r="I31" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="31" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3203,7 +3232,7 @@
       <c r="G32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="45" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="29" t="s">
@@ -3233,9 +3262,7 @@
       <c r="G33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>89</v>
-      </c>
+      <c r="H33" s="46"/>
       <c r="I33" s="25" t="s">
         <v>192</v>
       </c>
@@ -3262,10 +3289,10 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="35" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3291,8 +3318,8 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="22">
@@ -3496,7 +3523,7 @@
       <c r="G42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="42" t="s">
         <v>203</v>
       </c>
       <c r="I42" s="25" t="s">
@@ -3558,13 +3585,13 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="38"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="25">
@@ -3588,9 +3615,9 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="25">
@@ -3647,10 +3674,10 @@
       <c r="H47" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3679,8 +3706,8 @@
       <c r="H48" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="36"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="25">
@@ -3765,27 +3792,27 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
       <c r="I55" s="16" t="s">
         <v>190</v>
       </c>
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="I56" s="31" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="I56" s="30" t="s">
         <v>175</v>
       </c>
       <c r="J56" s="22" t="s">
@@ -3793,13 +3820,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="I57" s="27" t="s">
         <v>176</v>
       </c>
@@ -3813,7 +3840,8 @@
       <c r="B59" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1620,30 +1620,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 100 mA by default</t>
-    </r>
+    <t>ILIM = 100 mA by default ; CHECK PULL-UP values</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1860,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1966,48 +1943,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2310,7 +2290,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="J47" sqref="J47:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2329,50 +2309,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
@@ -2455,13 +2435,13 @@
       <c r="G5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="37" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2487,9 +2467,9 @@
       <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="33"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="22">
@@ -2513,13 +2493,13 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="41" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2545,9 +2525,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2609,7 +2589,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2639,7 +2619,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2780,13 +2760,13 @@
       <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2810,9 +2790,9 @@
       <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2836,9 +2816,9 @@
       <c r="G18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2862,9 +2842,9 @@
       <c r="G19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="37"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2978,13 +2958,13 @@
       <c r="G23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="25">
@@ -3008,9 +2988,9 @@
       <c r="G24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="37"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
@@ -3092,13 +3072,13 @@
       <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="37"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3122,9 +3102,9 @@
       <c r="G28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3148,9 +3128,9 @@
       <c r="G29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3174,9 +3154,9 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="37"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="25">
@@ -3232,7 +3212,7 @@
       <c r="G32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="33" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="29" t="s">
@@ -3262,7 +3242,7 @@
       <c r="G33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="46"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="25" t="s">
         <v>192</v>
       </c>
@@ -3289,10 +3269,10 @@
       <c r="G34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="38" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3318,8 +3298,8 @@
       <c r="G35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="22">
@@ -3523,7 +3503,7 @@
       <c r="G42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="32" t="s">
         <v>203</v>
       </c>
       <c r="I42" s="25" t="s">
@@ -3585,13 +3565,13 @@
       <c r="G44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="39" t="s">
         <v>89</v>
       </c>
       <c r="I44" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="37"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="25">
@@ -3615,11 +3595,11 @@
       <c r="G45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="36"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="37"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="25">
         <v>44</v>
       </c>
@@ -3649,7 +3629,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="25">
         <v>45</v>
       </c>
@@ -3674,14 +3654,14 @@
       <c r="H47" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="J47" s="35" t="s">
+      <c r="J47" s="47" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="25">
         <v>46</v>
       </c>
@@ -3706,10 +3686,10 @@
       <c r="H48" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="1:10" ht="18">
+      <c r="I48" s="37"/>
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" thickTop="1">
       <c r="A49" s="25">
         <v>47</v>
       </c>
@@ -3792,26 +3772,26 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
       <c r="I55" s="16" t="s">
         <v>190</v>
       </c>
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
       <c r="I56" s="30" t="s">
         <v>175</v>
       </c>
@@ -3820,13 +3800,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
       <c r="I57" s="27" t="s">
         <v>176</v>
       </c>
@@ -3841,23 +3821,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="J10:J11"/>
@@ -3867,16 +3840,23 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H27:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="207">
   <si>
     <t>Pin #</t>
   </si>
@@ -1143,9 +1143,6 @@
   </si>
   <si>
     <t>Connect !AL signal from battery gauge to a timer capture pin</t>
-  </si>
-  <si>
-    <t>Master external power switch with pull up/down (initial condition)</t>
   </si>
   <si>
     <t>XC6210 LDO</t>
@@ -1755,7 +1752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1809,19 +1806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1839,19 +1823,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1860,15 +1831,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -1943,13 +1911,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1973,21 +1938,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2289,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47:J48"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2299,9 +2264,9 @@
     <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2309,50 +2274,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="2">
@@ -2364,25 +2329,25 @@
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -2394,27 +2359,27 @@
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>190</v>
       </c>
+      <c r="I4" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2423,30 +2388,30 @@
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2455,24 +2420,24 @@
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2481,30 +2446,30 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="J7" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2513,21 +2478,21 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="41"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2539,26 +2504,26 @@
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>163</v>
+      <c r="H9" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>165</v>
+      <c r="J9" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
@@ -2571,16 +2536,16 @@
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="E10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2589,7 +2554,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="2">
@@ -2601,16 +2566,16 @@
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2619,9 +2584,9 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="32.25" customHeight="1">
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2634,17 +2599,17 @@
       <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>199</v>
+      <c r="H12" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
@@ -2664,17 +2629,17 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>199</v>
+      <c r="H13" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
@@ -2693,17 +2658,17 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>199</v>
+      <c r="H14" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
@@ -2722,17 +2687,17 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>199</v>
+      <c r="H15" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2751,22 +2716,22 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2781,18 +2746,18 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2807,18 +2772,18 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2833,18 +2798,18 @@
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2859,17 +2824,17 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>199</v>
+      <c r="H20" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>95</v>
@@ -2888,24 +2853,24 @@
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>199</v>
+      <c r="H21" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2914,30 +2879,30 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>197</v>
+      <c r="H22" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2949,25 +2914,25 @@
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2979,18 +2944,18 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="43"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="2">
@@ -3002,16 +2967,16 @@
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="E25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3031,16 +2996,16 @@
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -3063,22 +3028,22 @@
       <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3093,18 +3058,18 @@
       <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="43"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3119,18 +3084,18 @@
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="43"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3145,21 +3110,21 @@
       <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3168,30 +3133,30 @@
       <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>204</v>
+      <c r="H31" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3200,28 +3165,28 @@
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="28"/>
+      <c r="I32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3230,21 +3195,21 @@
       <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="25" t="s">
-        <v>192</v>
+      <c r="H33" s="45"/>
+      <c r="I33" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3260,19 +3225,19 @@
       <c r="D34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="36" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3289,20 +3254,20 @@
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3311,25 +3276,25 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="J36" s="22"/>
+      <c r="I36" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" ht="18">
       <c r="A37" s="2">
@@ -3341,16 +3306,16 @@
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="E37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>112</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -3370,16 +3335,16 @@
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -3390,7 +3355,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3399,28 +3364,28 @@
       <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="22"/>
+      <c r="I39" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3429,30 +3394,30 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="E40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>206</v>
+      <c r="H40" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3461,28 +3426,28 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="E41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="J41" s="22"/>
+      <c r="I41" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3491,30 +3456,30 @@
       <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="E42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3523,28 +3488,28 @@
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="22" t="s">
+      <c r="F43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="J43" s="22"/>
+      <c r="H43" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3553,28 +3518,28 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="43"/>
+      <c r="I44" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3583,24 +3548,24 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3609,28 +3574,28 @@
       <c r="C46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="E46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="22" t="s">
-        <v>187</v>
+      <c r="H46" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3639,30 +3604,30 @@
       <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>207</v>
+      <c r="H47" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3671,26 +3636,26 @@
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="47"/>
+      <c r="H48" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3699,16 +3664,16 @@
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="E49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3728,16 +3693,16 @@
       <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="E50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3748,76 +3713,74 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="I53" s="27" t="s">
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="I54" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="I54" s="27" t="s">
+      <c r="J54" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A55" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="I55" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="I56" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="I55" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="I56" s="30" t="s">
+      <c r="J56" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="I57" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="J56" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="I57" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickTop="1">
-      <c r="I58" s="27" t="s">
-        <v>185</v>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="I58" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="26"/>
+      <c r="B59" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="206">
   <si>
     <t>Pin #</t>
   </si>
@@ -1128,9 +1128,6 @@
       </rPr>
       <t>(8)/TIM4_CH2</t>
     </r>
-  </si>
-  <si>
-    <t>LDO</t>
   </si>
   <si>
     <t>GND</t>
@@ -1831,7 +1828,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1917,14 +1914,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1932,27 +1936,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2254,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,53 +2274,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="2">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2342,7 +2342,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>54</v>
@@ -2372,10 +2372,10 @@
         <v>57</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2400,14 +2400,14 @@
       <c r="G5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2432,9 +2432,9 @@
       <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="21">
@@ -2458,14 +2458,14 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2490,9 +2490,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -2517,17 +2517,17 @@
         <v>10</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="2">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2549,15 +2549,15 @@
         <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="2">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2578,13 +2578,13 @@
       <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>154</v>
+      <c r="H11" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="2">
@@ -2609,7 +2609,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
@@ -2639,7 +2639,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>98</v>
@@ -2668,7 +2668,7 @@
         <v>77</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
@@ -2697,7 +2697,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>100</v>
@@ -2725,13 +2725,13 @@
       <c r="G16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
@@ -2755,9 +2755,9 @@
       <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2">
@@ -2781,9 +2781,9 @@
       <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="2">
@@ -2807,9 +2807,9 @@
       <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
@@ -2834,7 +2834,7 @@
         <v>93</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>95</v>
@@ -2863,14 +2863,14 @@
         <v>94</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
-      <c r="A22" s="14">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2892,13 +2892,13 @@
         <v>21</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2923,13 +2923,13 @@
       <c r="G23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="24">
@@ -2953,12 +2953,12 @@
       <c r="G24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="18">
-      <c r="A25" s="2">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2979,7 +2979,7 @@
       <c r="G25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="33" t="s">
         <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18">
-      <c r="A26" s="2">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3008,8 +3008,8 @@
       <c r="G26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>154</v>
+      <c r="H26" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
@@ -3037,13 +3037,13 @@
       <c r="G27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="41"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3067,9 +3067,9 @@
       <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="41"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3093,9 +3093,9 @@
       <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="41"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3119,9 +3119,9 @@
       <c r="G30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="41"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="24">
@@ -3146,13 +3146,13 @@
         <v>28</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1">
@@ -3177,11 +3177,11 @@
       <c r="G32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="44" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" s="27"/>
     </row>
@@ -3207,9 +3207,9 @@
       <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3234,10 +3234,10 @@
       <c r="G34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="39" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3263,8 +3263,8 @@
       <c r="G35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="21">
@@ -3277,7 +3277,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>56</v>
@@ -3286,18 +3286,18 @@
         <v>33</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>137</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="2">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="2">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3347,8 +3347,8 @@
       <c r="G38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>154</v>
+      <c r="H38" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
@@ -3365,7 +3365,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>56</v>
@@ -3374,18 +3374,18 @@
         <v>35</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>137</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="24">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3401,19 +3401,19 @@
         <v>56</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
@@ -3433,16 +3433,16 @@
         <v>56</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H41" s="23" t="s">
         <v>137</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J41" s="21"/>
     </row>
@@ -3463,19 +3463,19 @@
         <v>56</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3495,16 +3495,16 @@
         <v>142</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J43" s="21"/>
     </row>
@@ -3530,13 +3530,13 @@
       <c r="G44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="J44" s="41"/>
+      <c r="I44" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="24">
@@ -3560,9 +3560,9 @@
       <c r="G45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="24">
@@ -3587,7 +3587,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>148</v>
@@ -3617,13 +3617,13 @@
         <v>34</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>206</v>
+        <v>170</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3649,13 +3649,13 @@
         <v>43</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="44"/>
+        <v>171</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" thickTop="1">
-      <c r="A49" s="24">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3684,7 +3684,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="18">
-      <c r="A50" s="2">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3705,8 +3705,8 @@
       <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>154</v>
+      <c r="H50" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>56</v>
@@ -3714,69 +3714,69 @@
     </row>
     <row r="52" spans="1:10">
       <c r="I52" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10">
       <c r="I53" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="19"/>
       <c r="I54" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A55" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="I55" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="I56" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J54" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="I55" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="I56" s="29" t="s">
+      <c r="J56" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="I57" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="I57" s="26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="I58" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3784,16 +3784,23 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="J10:J11"/>
@@ -3803,23 +3810,16 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
   <si>
     <t>Pin #</t>
   </si>
@@ -1561,9 +1561,6 @@
     <t>SmartFusion connector | Programmer header</t>
   </si>
   <si>
-    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?) | Add MCO testpoint</t>
-  </si>
-  <si>
     <t>Optional JTAG functionality</t>
   </si>
   <si>
@@ -1614,7 +1611,7 @@
     </r>
   </si>
   <si>
-    <t>ILIM = 100 mA by default ; CHECK PULL-UP values</t>
+    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?)</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1904,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,9 +1917,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,6 +1946,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2254,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,50 +2273,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="15">
@@ -2350,7 +2349,7 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2379,7 +2378,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2400,18 +2399,18 @@
       <c r="G5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2432,12 +2431,12 @@
       <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2458,18 +2457,18 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2490,12 +2489,12 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2554,7 +2553,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="15">
@@ -2578,16 +2577,16 @@
       <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="2">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2617,7 +2616,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="2">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2646,7 +2645,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="2">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2674,8 +2673,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="2">
+    <row r="15" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2703,7 +2702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2722,19 +2721,19 @@
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2755,12 +2754,12 @@
       <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="2">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2781,12 +2780,12 @@
       <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="2">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2807,12 +2806,12 @@
       <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="35"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2841,7 +2840,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2902,7 +2901,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2923,16 +2922,16 @@
       <c r="G23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="24">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2953,9 +2952,9 @@
       <c r="G24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="35"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="15">
@@ -2979,7 +2978,7 @@
       <c r="G25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -3008,7 +3007,7 @@
       <c r="G26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -3037,13 +3036,13 @@
       <c r="G27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -3067,9 +3066,9 @@
       <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="35"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
@@ -3093,9 +3092,9 @@
       <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="35"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="2">
@@ -3119,12 +3118,12 @@
       <c r="G30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="24">
+      <c r="H30" s="44"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3145,18 +3144,18 @@
       <c r="G31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="30" t="s">
         <v>187</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>202</v>
+      <c r="J31" s="46" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A32" s="24">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3177,7 +3176,7 @@
       <c r="G32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="42" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="28" t="s">
@@ -3186,7 +3185,7 @@
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="24">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3207,13 +3206,13 @@
       <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3234,15 +3233,15 @@
       <c r="G34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3263,11 +3262,11 @@
       <c r="G35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="21">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3347,7 +3346,7 @@
       <c r="G38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3355,7 +3354,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="21">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3413,11 +3412,11 @@
         <v>196</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="24">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3447,7 +3446,7 @@
       <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="24">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3468,18 +3467,18 @@
       <c r="G42" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>201</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>199</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="24">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3509,7 +3508,7 @@
       <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="24">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3530,16 +3529,16 @@
       <c r="G44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="41" t="s">
+      <c r="I44" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="24">
+      <c r="A45" s="15">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3560,12 +3559,12 @@
       <c r="G45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A46" s="24">
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3594,7 +3593,7 @@
       </c>
       <c r="J46" s="22"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="24">
         <v>45</v>
       </c>
@@ -3619,14 +3618,12 @@
       <c r="H47" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="24">
         <v>46</v>
       </c>
@@ -3651,10 +3648,10 @@
       <c r="H48" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="36"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" thickTop="1">
+      <c r="I48" s="35"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" ht="18">
       <c r="A49" s="15">
         <v>47</v>
       </c>
@@ -3705,7 +3702,7 @@
       <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -3737,26 +3734,26 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="I55" s="15" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
       <c r="I56" s="29" t="s">
         <v>173</v>
       </c>
@@ -3765,11 +3762,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
       <c r="I57" s="26" t="s">
         <v>174</v>
       </c>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2985,7 +2985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="18.75" thickBot="1">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="F27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="45" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="37" t="s">
@@ -3044,8 +3044,8 @@
       </c>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2">
+    <row r="28" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3071,7 +3071,7 @@
       <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3097,7 +3097,7 @@
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A30" s="2">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3594,7 +3594,7 @@
       <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="24">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3624,7 +3624,7 @@
       <c r="J47" s="34"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="24">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1913,45 +1913,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2273,50 +2273,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="15">
@@ -2399,13 +2399,13 @@
       <c r="G5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2431,9 +2431,9 @@
       <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15">
@@ -2457,13 +2457,13 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2489,9 +2489,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15">
@@ -2553,7 +2553,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="15">
@@ -2583,7 +2583,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="15">
@@ -2673,7 +2673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30.75" thickBot="1">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2721,18 +2721,18 @@
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickTop="1">
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -2754,9 +2754,9 @@
       <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="34"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="15">
@@ -2780,9 +2780,9 @@
       <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="15">
@@ -2806,9 +2806,9 @@
       <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="15">
@@ -2922,13 +2922,13 @@
       <c r="G23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="15">
@@ -2952,9 +2952,9 @@
       <c r="G24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="34"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="15">
@@ -2985,7 +2985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" thickBot="1">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3033,18 +3033,18 @@
       <c r="F27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickTop="1">
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="15">
         <v>26</v>
       </c>
@@ -3066,9 +3066,9 @@
       <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="15">
@@ -3092,9 +3092,9 @@
       <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="34"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="15">
@@ -3118,9 +3118,9 @@
       <c r="G30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="34"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A31" s="15">
@@ -3150,7 +3150,7 @@
       <c r="I31" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="G32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="35" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="28" t="s">
@@ -3206,7 +3206,7 @@
       <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="24" t="s">
         <v>190</v>
       </c>
@@ -3233,10 +3233,10 @@
       <c r="G34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="38" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3262,8 +3262,8 @@
       <c r="G35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="15">
@@ -3529,13 +3529,13 @@
       <c r="G44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="J44" s="34"/>
+      <c r="J44" s="44"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="15">
@@ -3559,9 +3559,9 @@
       <c r="G45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="34"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="15">
@@ -3618,10 +3618,10 @@
       <c r="H47" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="34"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="15">
@@ -3648,8 +3648,8 @@
       <c r="H48" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="34"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="15">
@@ -3734,26 +3734,26 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="I55" s="15" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="I56" s="29" t="s">
         <v>173</v>
       </c>
@@ -3762,11 +3762,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
       <c r="I57" s="26" t="s">
         <v>174</v>
       </c>
@@ -3781,6 +3781,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
@@ -3790,33 +3817,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1825,7 +1825,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1919,39 +1919,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2253,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2273,50 +2279,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="15">
@@ -2399,13 +2405,13 @@
       <c r="G5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2431,9 +2437,9 @@
       <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15">
@@ -2457,13 +2463,13 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="40" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2489,9 +2495,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="43"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15">
@@ -2553,7 +2559,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="15">
@@ -2583,7 +2589,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="15">
@@ -2604,14 +2610,14 @@
       <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>69</v>
+      <c r="G12" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>97</v>
+      <c r="I12" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2634,14 +2640,14 @@
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>76</v>
+      <c r="G13" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>98</v>
+      <c r="I13" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2663,14 +2669,14 @@
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>77</v>
+      <c r="G14" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>99</v>
+      <c r="I14" s="35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -2692,14 +2698,14 @@
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>78</v>
+      <c r="G15" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>100</v>
+      <c r="I15" s="35" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2724,13 +2730,13 @@
       <c r="G16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15">
@@ -2754,9 +2760,9 @@
       <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="15">
@@ -2780,9 +2786,9 @@
       <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="15">
@@ -2806,9 +2812,9 @@
       <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="15">
@@ -2829,14 +2835,14 @@
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>93</v>
+      <c r="G20" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>95</v>
+      <c r="I20" s="35" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2858,14 +2864,14 @@
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>94</v>
+      <c r="G21" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>96</v>
+      <c r="I21" s="35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
@@ -2922,13 +2928,13 @@
       <c r="G23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="44"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="15">
@@ -2952,9 +2958,9 @@
       <c r="G24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="15">
@@ -3036,13 +3042,13 @@
       <c r="G27" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="44"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="15">
@@ -3066,9 +3072,9 @@
       <c r="G28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="44"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="15">
@@ -3092,9 +3098,9 @@
       <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="15">
@@ -3118,9 +3124,9 @@
       <c r="G30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="44"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A31" s="15">
@@ -3176,7 +3182,7 @@
       <c r="G32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="46" t="s">
         <v>89</v>
       </c>
       <c r="I32" s="28" t="s">
@@ -3206,7 +3212,7 @@
       <c r="G33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="24" t="s">
         <v>190</v>
       </c>
@@ -3233,10 +3239,10 @@
       <c r="G34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="41" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3262,8 +3268,8 @@
       <c r="G35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="15">
@@ -3529,13 +3535,13 @@
       <c r="G44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="J44" s="44"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="15">
@@ -3559,9 +3565,9 @@
       <c r="G45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="44"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="15">
@@ -3618,10 +3624,10 @@
       <c r="H47" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="44"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="15">
@@ -3648,8 +3654,8 @@
       <c r="H48" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="44"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="15">
@@ -3734,26 +3740,26 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
       <c r="I55" s="15" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
       <c r="I56" s="29" t="s">
         <v>173</v>
       </c>
@@ -3762,11 +3768,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
       <c r="I57" s="26" t="s">
         <v>174</v>
       </c>
@@ -3781,16 +3787,23 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="J10:J11"/>
@@ -3800,23 +3813,16 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="203">
   <si>
     <t>Pin #</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>D1V5_SENSE</t>
-  </si>
-  <si>
-    <t>DXVY_SENSE</t>
   </si>
   <si>
     <r>
@@ -583,9 +580,6 @@
     <t>D1V5 rail current sense</t>
   </si>
   <si>
-    <t>DXVY rail current sense</t>
-  </si>
-  <si>
     <t>TIM2_CH3</t>
   </si>
   <si>
@@ -640,9 +634,6 @@
   </si>
   <si>
     <t>I2C2_SDA</t>
-  </si>
-  <si>
-    <t>VBAT current sense, DXVY feeback potentiometer and PMIC</t>
   </si>
   <si>
     <r>
@@ -1139,9 +1130,6 @@
     <t>Have at least one SmartFusion GPIO line with timer capture capability</t>
   </si>
   <si>
-    <t>Connect !AL signal from battery gauge to a timer capture pin</t>
-  </si>
-  <si>
     <t>XC6210 LDO</t>
   </si>
   <si>
@@ -1222,12 +1210,6 @@
     <t>ILIM1</t>
   </si>
   <si>
-    <t>EN3 (?)</t>
-  </si>
-  <si>
-    <t>PWR_ON (?)</t>
-  </si>
-  <si>
     <t>#AL/CC+</t>
   </si>
   <si>
@@ -1410,18 +1392,9 @@
     <t>Master switch</t>
   </si>
   <si>
-    <t>#EXTPWR</t>
-  </si>
-  <si>
-    <t>LTC3677</t>
-  </si>
-  <si>
     <t>GPIO</t>
   </si>
   <si>
-    <t>Always on</t>
-  </si>
-  <si>
     <t>Power switch for ALL rails</t>
   </si>
   <si>
@@ -1611,14 +1584,35 @@
     </r>
   </si>
   <si>
-    <t>Check if LTC3677 PWR_ON should be connected to it as well (rising edge?)</t>
+    <t>LTC4085</t>
+  </si>
+  <si>
+    <t>#ACPR</t>
+  </si>
+  <si>
+    <t>VDD_SENSE</t>
+  </si>
+  <si>
+    <t>VDD rail current sense</t>
+  </si>
+  <si>
+    <t>VBAT current sense</t>
+  </si>
+  <si>
+    <t>HPWR</t>
+  </si>
+  <si>
+    <t>SUSP</t>
+  </si>
+  <si>
+    <t>Connect #AL signal from battery gauge to a timer capture pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,14 +1631,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1718,7 +1704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,11 +1718,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1745,8 +1726,26 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1766,21 +1765,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1818,14 +1802,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1845,44 +1828,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,78 +1871,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2259,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2279,53 +2274,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2343,19 +2338,19 @@
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>158</v>
+      <c r="H3" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2373,18 +2368,18 @@
       <c r="F4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>188</v>
+      <c r="H4" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2402,21 +2397,21 @@
       <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>164</v>
+      <c r="H5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>160</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2434,15 +2429,15 @@
       <c r="F6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2463,18 +2458,18 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>177</v>
+      <c r="H7" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2495,12 +2490,12 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2521,18 +2516,18 @@
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>161</v>
+      <c r="H9" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>163</v>
+        <v>135</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2542,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>56</v>
@@ -2554,15 +2549,15 @@
         <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2572,7 +2567,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>56</v>
@@ -2580,19 +2575,19 @@
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>158</v>
+      <c r="H11" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2610,19 +2605,19 @@
       <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>95</v>
+      <c r="G12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2640,18 +2635,18 @@
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>96</v>
+      <c r="G13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2669,18 +2664,18 @@
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>97</v>
+      <c r="H14" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2698,14 +2693,14 @@
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>99</v>
+      <c r="H15" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2722,24 +2717,24 @@
         <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="38"/>
+      <c r="G16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2752,20 +2747,20 @@
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2778,20 +2773,20 @@
         <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="38"/>
+        <v>86</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2804,20 +2799,20 @@
         <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2830,23 +2825,23 @@
         <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>100</v>
+      <c r="H20" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2859,23 +2854,23 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>98</v>
+      <c r="H21" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2885,7 +2880,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>56</v>
@@ -2893,21 +2888,21 @@
       <c r="F22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>195</v>
+      <c r="H22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2920,24 +2915,24 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="38"/>
+      <c r="H23" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2950,30 +2945,30 @@
         <v>23</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="38"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="18">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>56</v>
@@ -2982,27 +2977,27 @@
         <v>56</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>154</v>
+        <v>109</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>56</v>
@@ -3010,11 +3005,11 @@
       <c r="F26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>158</v>
+      <c r="H26" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
@@ -3034,24 +3029,24 @@
         <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="33" t="s">
+      <c r="H27" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="38"/>
+      <c r="I27" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3064,20 +3059,20 @@
         <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3090,20 +3085,20 @@
         <v>26</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A30" s="15">
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3116,20 +3111,20 @@
         <v>27</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A31" s="15">
+        <v>110</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3142,26 +3137,24 @@
         <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A32" s="15">
+      <c r="H31" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3174,24 +3167,24 @@
         <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="27"/>
+      <c r="H32" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3204,21 +3197,21 @@
         <v>30</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="24" t="s">
-        <v>190</v>
+      <c r="H33" s="34"/>
+      <c r="I33" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3231,23 +3224,23 @@
         <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3260,19 +3253,19 @@
         <v>31</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
+        <v>125</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3282,7 +3275,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>56</v>
@@ -3290,58 +3283,58 @@
       <c r="F36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="21"/>
+      <c r="G36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="15">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>56</v>
@@ -3349,18 +3342,18 @@
       <c r="F38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="32" t="s">
-        <v>158</v>
+      <c r="H38" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3370,7 +3363,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>56</v>
@@ -3378,19 +3371,19 @@
       <c r="F39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39" s="21"/>
+      <c r="G39" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3399,30 +3392,30 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>139</v>
+      <c r="D40" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" s="24" t="s">
+      <c r="F40" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>203</v>
+      <c r="H40" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3431,28 +3424,28 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>140</v>
+      <c r="D41" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="21"/>
+      <c r="F41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3461,30 +3454,30 @@
       <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>141</v>
+      <c r="D42" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="J42" s="24" t="s">
-        <v>202</v>
+      <c r="H42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3497,24 +3490,24 @@
         <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="21"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3523,28 +3516,28 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="38"/>
+        <v>143</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3553,24 +3546,24 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="38"/>
+        <v>144</v>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3591,16 +3584,16 @@
       <c r="G46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>185</v>
+      <c r="H46" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J46" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3612,25 +3605,25 @@
       <c r="D47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>149</v>
+      <c r="E47" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" s="38"/>
+      <c r="H47" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3642,23 +3635,23 @@
       <c r="D48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>150</v>
+      <c r="E48" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="38"/>
+      <c r="H48" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="52"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" ht="18">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3668,7 +3661,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>56</v>
@@ -3677,17 +3670,17 @@
         <v>56</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3697,96 +3690,111 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="I52" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="I53" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="I52" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="I53" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="I54" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="I55" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="I56" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="I57" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="I58" s="26" t="s">
-        <v>183</v>
-      </c>
+      <c r="B54" s="18"/>
+      <c r="I54" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="I55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="I56" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="25"/>
+      <c r="B59" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
@@ -3796,33 +3804,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="202">
   <si>
     <t>Pin #</t>
   </si>
@@ -1204,12 +1204,6 @@
     <t>TRACESWO</t>
   </si>
   <si>
-    <t>ILIM0</t>
-  </si>
-  <si>
-    <t>ILIM1</t>
-  </si>
-  <si>
     <t>#AL/CC+</t>
   </si>
   <si>
@@ -1363,11 +1357,44 @@
     <t>3-pin JUMPER</t>
   </si>
   <si>
+    <t>Master switch</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Power switch for ALL rails</t>
+  </si>
+  <si>
+    <t>Battery Gauge #AL/CC</t>
+  </si>
+  <si>
     <r>
       <t>I</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1375,7 +1402,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LIM</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1385,35 +1412,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> selector</t>
-    </r>
-  </si>
-  <si>
-    <t>Master switch</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>Power switch for ALL rails</t>
-  </si>
-  <si>
-    <t>Battery Gauge #AL/CC</t>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t xml:space="preserve"> signals | USART</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1423,7 +1433,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C</t>
+      <t xml:space="preserve"> signals | GPIO signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orange U</t>
     </r>
     <r>
       <rPr>
@@ -1434,7 +1449,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -1444,7 +1459,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> signals | USART</t>
+      <t xml:space="preserve"> = 2.0V I</t>
     </r>
     <r>
       <rPr>
@@ -1455,7 +1470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>FWD</t>
     </r>
     <r>
       <rPr>
@@ -1465,12 +1480,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> signals | GPIO signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Orange U</t>
+      <t xml:space="preserve"> = 4mA | Weak pull-up for BOOT1 = '1' on startup</t>
+    </r>
+  </si>
+  <si>
+    <t>LED1 (GREEN) | JTAG</t>
+  </si>
+  <si>
+    <t>MAX9938</t>
+  </si>
+  <si>
+    <t>SWD | JTAG</t>
+  </si>
+  <si>
+    <t>GPIO+ | JTAG</t>
+  </si>
+  <si>
+    <t>LED1 | Programmer header</t>
+  </si>
+  <si>
+    <t>SmartFusion connector | Programmer header</t>
+  </si>
+  <si>
+    <t>Optional JTAG functionality</t>
+  </si>
+  <si>
+    <r>
+      <t>Green U</t>
     </r>
     <r>
       <rPr>
@@ -1491,7 +1527,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 2.0V I</t>
+      <t xml:space="preserve"> = 2.1V I</t>
     </r>
     <r>
       <rPr>
@@ -1512,74 +1548,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 4mA | Weak pull-up for BOOT1 = '1' on startup</t>
-    </r>
-  </si>
-  <si>
-    <t>LED1 (GREEN) | JTAG</t>
-  </si>
-  <si>
-    <t>MAX9938</t>
-  </si>
-  <si>
-    <t>SWD | JTAG</t>
-  </si>
-  <si>
-    <t>GPIO+ | JTAG</t>
-  </si>
-  <si>
-    <t>LED1 | Programmer header</t>
-  </si>
-  <si>
-    <t>SmartFusion connector | Programmer header</t>
-  </si>
-  <si>
-    <t>Optional JTAG functionality</t>
-  </si>
-  <si>
-    <r>
-      <t>Green U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 2.1V I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FWD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> = 10mA | Optional JTAG functionality</t>
     </r>
   </si>
@@ -1606,6 +1574,12 @@
   </si>
   <si>
     <t>Connect #AL signal from battery gauge to a timer capture pin</t>
+  </si>
+  <si>
+    <t>High power select (HPWR)</t>
+  </si>
+  <si>
+    <t>Suspend (SUSP)</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1729,12 +1703,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,7 +1776,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1897,62 +1865,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2254,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,50 +2236,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="14">
@@ -2338,10 +2300,10 @@
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -2372,10 +2334,10 @@
         <v>57</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2400,13 +2362,13 @@
       <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="46" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2432,9 +2394,9 @@
       <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14">
@@ -2458,14 +2420,14 @@
       <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2490,9 +2452,9 @@
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="42"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14">
@@ -2554,7 +2516,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="14">
@@ -2575,16 +2537,16 @@
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="14">
@@ -2609,7 +2571,7 @@
         <v>92</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>94</v>
@@ -2639,7 +2601,7 @@
         <v>93</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>95</v>
@@ -2668,7 +2630,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>96</v>
@@ -2697,7 +2659,7 @@
         <v>77</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>98</v>
@@ -2725,13 +2687,13 @@
       <c r="G16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="14">
@@ -2755,9 +2717,9 @@
       <c r="G17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="14">
@@ -2781,9 +2743,9 @@
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="14">
@@ -2807,9 +2769,9 @@
       <c r="G19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14">
@@ -2830,14 +2792,14 @@
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>197</v>
+      <c r="G20" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>198</v>
+        <v>185</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2863,7 +2825,7 @@
         <v>76</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>97</v>
@@ -2895,10 +2857,10 @@
         <v>158</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2923,13 +2885,13 @@
       <c r="G23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14">
@@ -2953,9 +2915,9 @@
       <c r="G24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="14">
@@ -3005,10 +2967,10 @@
       <c r="F26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -3037,13 +2999,13 @@
       <c r="G27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="14">
@@ -3067,9 +3029,9 @@
       <c r="G28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="43"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="14">
@@ -3093,9 +3055,9 @@
       <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="43"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="14">
@@ -3119,9 +3081,9 @@
       <c r="G30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="43"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="14">
@@ -3142,14 +3104,14 @@
       <c r="F31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31" s="49" t="s">
-        <v>183</v>
+      <c r="H31" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="J31" s="32"/>
     </row>
@@ -3175,11 +3137,11 @@
       <c r="G32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="48" t="s">
         <v>88</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J32" s="25"/>
     </row>
@@ -3205,9 +3167,9 @@
       <c r="G33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3232,10 +3194,10 @@
       <c r="G34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3261,8 +3223,8 @@
       <c r="G35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="37"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14">
@@ -3290,7 +3252,7 @@
         <v>134</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J36" s="19"/>
     </row>
@@ -3342,10 +3304,10 @@
       <c r="F38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3378,7 +3340,7 @@
         <v>134</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J39" s="19"/>
     </row>
@@ -3399,19 +3361,19 @@
         <v>56</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="37" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
@@ -3431,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>165</v>
@@ -3440,7 +3402,7 @@
         <v>134</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J41" s="19"/>
     </row>
@@ -3461,19 +3423,19 @@
         <v>56</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="37" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I42" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3493,16 +3455,16 @@
         <v>139</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J43" s="19"/>
     </row>
@@ -3528,13 +3490,13 @@
       <c r="G44" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="J44" s="43"/>
+      <c r="I44" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="14">
@@ -3558,9 +3520,9 @@
       <c r="G45" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="14">
@@ -3585,14 +3547,14 @@
         <v>42</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -3611,16 +3573,16 @@
       <c r="F47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="35" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="43"/>
+        <v>192</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14">
@@ -3641,14 +3603,16 @@
       <c r="F48" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="35" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="43"/>
+        <v>192</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="14">
@@ -3698,10 +3662,10 @@
       <c r="F50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -3709,14 +3673,14 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="47" t="s">
-        <v>200</v>
+      <c r="I52" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="47" t="s">
-        <v>201</v>
+      <c r="I53" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="J53" s="13"/>
     </row>
@@ -3725,59 +3689,66 @@
         <v>152</v>
       </c>
       <c r="B54" s="18"/>
-      <c r="I54" s="47" t="s">
-        <v>196</v>
+      <c r="I54" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
       <c r="I55" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="I56" s="47" t="s">
-        <v>177</v>
+      <c r="A56" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="I56" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="J56" s="19"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
+  <mergeCells count="35">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="J10:J11"/>
@@ -3787,23 +3758,15 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1914,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,7 +2217,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3573,7 +3573,7 @@
       <c r="F47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="37" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="51" t="s">
@@ -3603,7 +3603,7 @@
       <c r="F48" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="35" t="s">
+      <c r="G48" s="37" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="51" t="s">

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="203">
   <si>
     <t>Pin #</t>
   </si>
@@ -1580,6 +1580,9 @@
   </si>
   <si>
     <t>Suspend (SUSP)</t>
+  </si>
+  <si>
+    <t>Wall present (ACPR)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,12 +1706,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +1773,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1874,48 +1871,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2216,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2236,50 +2230,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="14">
@@ -2336,8 +2330,8 @@
       <c r="H4" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>193</v>
+      <c r="I4" s="37" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2362,13 +2356,13 @@
       <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="43" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2394,9 +2388,9 @@
       <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14">
@@ -2426,7 +2420,7 @@
       <c r="I7" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="46" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2454,7 +2448,7 @@
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14">
@@ -2516,7 +2510,7 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="14">
@@ -2546,7 +2540,7 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="14">
@@ -2687,13 +2681,13 @@
       <c r="G16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="44" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="14">
@@ -2717,9 +2711,9 @@
       <c r="G17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="39"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="14">
@@ -2743,9 +2737,9 @@
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="14">
@@ -2769,9 +2763,9 @@
       <c r="G19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="39"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14">
@@ -2885,13 +2879,13 @@
       <c r="G23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="48" t="s">
         <v>196</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14">
@@ -2915,9 +2909,9 @@
       <c r="G24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="39"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="14">
@@ -3005,7 +2999,7 @@
       <c r="I27" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="14">
@@ -3031,7 +3025,7 @@
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="39"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="14">
@@ -3057,7 +3051,7 @@
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="39"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="14">
@@ -3081,9 +3075,9 @@
       <c r="G30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="14">
@@ -3137,7 +3131,7 @@
       <c r="G32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="38" t="s">
         <v>88</v>
       </c>
       <c r="I32" s="26" t="s">
@@ -3167,7 +3161,7 @@
       <c r="G33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="22" t="s">
         <v>179</v>
       </c>
@@ -3194,7 +3188,7 @@
       <c r="G34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="46" t="s">
         <v>128</v>
       </c>
       <c r="I34" s="41" t="s">
@@ -3223,7 +3217,7 @@
       <c r="G35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="40"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:10">
@@ -3333,7 +3327,7 @@
       <c r="F39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="37" t="s">
         <v>164</v>
       </c>
       <c r="H39" s="21" t="s">
@@ -3395,7 +3389,7 @@
       <c r="F41" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="37" t="s">
         <v>165</v>
       </c>
       <c r="H41" s="21" t="s">
@@ -3457,7 +3451,7 @@
       <c r="F43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="37" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="19" t="s">
@@ -3487,16 +3481,16 @@
       <c r="F44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="J44" s="39"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="14">
@@ -3520,9 +3514,9 @@
       <c r="G45" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="39"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="14">
@@ -3540,16 +3534,16 @@
       <c r="E46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="37" t="s">
         <v>145</v>
       </c>
       <c r="J46" s="20"/>
@@ -3570,19 +3564,19 @@
       <c r="E47" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="37" t="s">
         <v>143</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="51" t="s">
+      <c r="H47" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J47" s="39"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14">
@@ -3600,19 +3594,19 @@
       <c r="E48" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="37" t="s">
         <v>144</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="I48" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="J48" s="39"/>
+      <c r="I48" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="14">
@@ -3630,16 +3624,16 @@
       <c r="E49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="37" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3695,43 +3689,69 @@
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="I55" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
       <c r="I56" s="35" t="s">
         <v>175</v>
       </c>
       <c r="J56" s="19"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:F1"/>
@@ -3741,32 +3761,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="201">
   <si>
     <t>Pin #</t>
   </si>
@@ -512,9 +512,6 @@
     <t>SmartFusion connector</t>
   </si>
   <si>
-    <t>PB2/BOOT1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -885,9 +882,6 @@
     </r>
   </si>
   <si>
-    <t>USART1_CK/MCO</t>
-  </si>
-  <si>
     <t>USART1_TX(8)</t>
   </si>
   <si>
@@ -1124,15 +1118,6 @@
     <t>GND</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTES: </t>
-  </si>
-  <si>
-    <t>Have at least one SmartFusion GPIO line with timer capture capability</t>
-  </si>
-  <si>
-    <t>XC6210 LDO</t>
-  </si>
-  <si>
     <t>SmartFusion Connector | OSC32</t>
   </si>
   <si>
@@ -1360,9 +1345,6 @@
     <t>Master switch</t>
   </si>
   <si>
-    <t>GPIO</t>
-  </si>
-  <si>
     <t>Power switch for ALL rails</t>
   </si>
   <si>
@@ -1555,15 +1537,6 @@
     <t>LTC4085</t>
   </si>
   <si>
-    <t>#ACPR</t>
-  </si>
-  <si>
-    <t>VDD_SENSE</t>
-  </si>
-  <si>
-    <t>VDD rail current sense</t>
-  </si>
-  <si>
     <t>VBAT current sense</t>
   </si>
   <si>
@@ -1573,16 +1546,95 @@
     <t>SUSP</t>
   </si>
   <si>
-    <t>Connect #AL signal from battery gauge to a timer capture pin</t>
-  </si>
-  <si>
     <t>High power select (HPWR)</t>
   </si>
   <si>
     <t>Suspend (SUSP)</t>
   </si>
   <si>
-    <t>Wall present (ACPR)</t>
+    <t>XC6210 - MAX9938</t>
+  </si>
+  <si>
+    <t>D3V3_STM_SENSE</t>
+  </si>
+  <si>
+    <t>D3V3_STM rail current sense</t>
+  </si>
+  <si>
+    <r>
+      <t>PB2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOT1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART1_CK/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GPIO signals | USART</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signals</t>
+    </r>
+  </si>
+  <si>
+    <t>#PWRGD</t>
+  </si>
+  <si>
+    <t>LTC4361</t>
+  </si>
+  <si>
+    <t>LED1</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +1758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1831,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,9 +1872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1836,13 +1891,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,53 +1912,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2210,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,53 +2295,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="14">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2294,19 +2359,19 @@
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>154</v>
+      <c r="H3" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2324,18 +2389,18 @@
       <c r="F4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>201</v>
+      <c r="H4" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2356,18 +2421,18 @@
       <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>156</v>
+      <c r="J5" s="42" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2388,15 +2453,15 @@
       <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="43"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2411,21 +2476,21 @@
       <c r="F7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>169</v>
+      <c r="G7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2443,15 +2508,15 @@
       <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2473,17 +2538,17 @@
         <v>10</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="14">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2505,15 +2570,15 @@
         <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="14">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2531,19 +2596,19 @@
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>154</v>
+      <c r="H11" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2561,19 +2626,19 @@
       <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>94</v>
+      <c r="G12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="14">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2591,18 +2656,18 @@
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>95</v>
+      <c r="G13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="14">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2620,18 +2685,18 @@
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>96</v>
+      <c r="H14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="14">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2649,18 +2714,18 @@
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>98</v>
+      <c r="H15" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
-      <c r="A16" s="2">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2678,19 +2743,19 @@
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="47"/>
+      <c r="I16" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2711,12 +2776,12 @@
       <c r="G17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="14">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2737,12 +2802,12 @@
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="14">
+      <c r="A19" s="31">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2763,12 +2828,12 @@
       <c r="G19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="14">
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" s="31">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2781,23 +2846,23 @@
         <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2810,23 +2875,23 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>97</v>
+      <c r="H21" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
-      <c r="A22" s="14">
+      <c r="A22" s="31">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2836,7 +2901,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>56</v>
@@ -2848,17 +2913,17 @@
         <v>21</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>183</v>
+        <v>153</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="31">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2871,24 +2936,24 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="47"/>
+        <v>98</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14">
+      <c r="A24" s="31">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2901,30 +2966,30 @@
         <v>23</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="47"/>
+        <v>103</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="18">
-      <c r="A25" s="14">
+      <c r="A25" s="31">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>56</v>
@@ -2933,27 +2998,27 @@
         <v>56</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>151</v>
+        <v>108</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18">
-      <c r="A26" s="14">
+      <c r="A26" s="31">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>56</v>
@@ -2961,18 +3026,18 @@
       <c r="F26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>154</v>
+      <c r="H26" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
-      <c r="A27" s="2">
+      <c r="A27" s="31">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2985,24 +3050,24 @@
         <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="41" t="s">
+      <c r="G27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="47"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14">
+      <c r="A28" s="31">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3015,20 +3080,20 @@
         <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="47"/>
+        <v>116</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14">
+      <c r="A29" s="31">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3041,20 +3106,20 @@
         <v>26</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="47"/>
+        <v>117</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14">
+      <c r="A30" s="31">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3067,20 +3132,20 @@
         <v>27</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="47"/>
+        <v>109</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14">
+      <c r="A31" s="31">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3093,24 +3158,24 @@
         <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="32"/>
+      <c r="H31" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14">
+      <c r="A32" s="31">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3123,24 +3188,24 @@
         <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J32" s="25"/>
+      <c r="I32" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="14">
+      <c r="A33" s="31">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3153,21 +3218,19 @@
         <v>30</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="22" t="s">
-        <v>179</v>
-      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14">
+      <c r="A34" s="49">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3180,23 +3243,23 @@
         <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14">
+      <c r="A35" s="49">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3209,19 +3272,19 @@
         <v>31</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="41"/>
+        <v>123</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14">
+      <c r="A36" s="31">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3231,7 +3294,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>56</v>
@@ -3240,28 +3303,28 @@
         <v>33</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="14">
+      <c r="A37" s="31">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>56</v>
@@ -3270,27 +3333,27 @@
         <v>56</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="14">
+      <c r="A38" s="31">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>56</v>
@@ -3298,18 +3361,18 @@
       <c r="F38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="35" t="s">
-        <v>154</v>
+      <c r="H38" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="14">
+      <c r="A39" s="31">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3319,7 +3382,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>56</v>
@@ -3327,19 +3390,19 @@
       <c r="F39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="19"/>
+      <c r="G39" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="14">
+      <c r="A40" s="31">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3348,30 +3411,30 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>136</v>
+      <c r="D40" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>191</v>
+      <c r="H40" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="14">
+      <c r="A41" s="31">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3380,28 +3443,28 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>137</v>
+      <c r="D41" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J41" s="19"/>
+      <c r="F41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="14">
+      <c r="A42" s="31">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3410,30 +3473,30 @@
       <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>138</v>
+      <c r="D42" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="37" t="s">
+      <c r="F42" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>190</v>
+      <c r="H42" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="14">
+      <c r="A43" s="31">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3446,24 +3509,24 @@
         <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="19"/>
+      <c r="I43" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="31">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3472,28 +3535,28 @@
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="47"/>
+      <c r="I44" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="14">
+      <c r="A45" s="31">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3502,24 +3565,24 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="47"/>
+        <v>142</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="14">
+      <c r="A46" s="31">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3534,22 +3597,22 @@
       <c r="E46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="F46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="J46" s="20"/>
+      <c r="H46" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="31">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3561,25 +3624,25 @@
       <c r="D47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="37" t="s">
+      <c r="E47" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="J47" s="47"/>
+      <c r="H47" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="36"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="14">
+      <c r="A48" s="31">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3591,25 +3654,25 @@
       <c r="D48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="37" t="s">
+      <c r="E48" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="J48" s="47"/>
+      <c r="H48" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" ht="18">
-      <c r="A49" s="14">
+      <c r="A49" s="31">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3619,26 +3682,26 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="37" t="s">
+      <c r="F49" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18">
-      <c r="A50" s="14">
+      <c r="A50" s="31">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3648,7 +3711,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>56</v>
@@ -3656,85 +3719,104 @@
       <c r="F50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>154</v>
+      <c r="H50" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="I52" s="35" t="s">
-        <v>197</v>
+      <c r="I52" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="35" t="s">
+      <c r="I53" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="I54" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="I54" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="J54" s="22"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="I55" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="I56" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="I57" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="I58" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="I55" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="I56" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="23"/>
+      <c r="B59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
+  <mergeCells count="33">
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J27:J30"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="J10:J11"/>
@@ -3744,23 +3826,12 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
   <si>
     <t>Pin #</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>PA0</t>
-  </si>
-  <si>
-    <t>VOUT_SENSE</t>
   </si>
   <si>
     <t>D3V3_STM</t>
@@ -556,19 +553,10 @@
     </r>
   </si>
   <si>
-    <t>A3V3_SENSE</t>
-  </si>
-  <si>
     <t>A1V5_SENSE</t>
   </si>
   <si>
-    <t>A3V3 rail current sense</t>
-  </si>
-  <si>
     <t>A1V5 rail current sense</t>
-  </si>
-  <si>
-    <t>VOUT rail current sense</t>
   </si>
   <si>
     <t>D3V3 rail current sense</t>
@@ -1635,6 +1623,12 @@
   </si>
   <si>
     <t>LED1</t>
+  </si>
+  <si>
+    <t>VSUP_SENSE</t>
+  </si>
+  <si>
+    <t>VSUP rail current sense</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1825,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,57 +1918,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2295,40 +2295,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
@@ -2336,9 +2336,9 @@
         <v>52</v>
       </c>
       <c r="G2" s="45"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="31">
@@ -2360,10 +2360,10 @@
         <v>56</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>54</v>
@@ -2393,10 +2393,10 @@
         <v>57</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2421,14 +2421,14 @@
       <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="42" t="s">
+      <c r="H5" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>151</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2453,9 +2453,9 @@
       <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="42"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="31">
@@ -2479,14 +2479,14 @@
       <c r="G7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>164</v>
+      <c r="H7" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2511,9 +2511,9 @@
       <c r="G8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="31">
@@ -2538,13 +2538,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18">
@@ -2558,7 +2558,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>56</v>
@@ -2567,15 +2567,15 @@
         <v>56</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="31">
@@ -2588,7 +2588,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>56</v>
@@ -2596,16 +2596,16 @@
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>70</v>
+      <c r="G11" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="31">
@@ -2621,19 +2621,19 @@
         <v>68</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>91</v>
+      <c r="G12" s="37" t="s">
+        <v>197</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>93</v>
+        <v>175</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2651,19 +2651,19 @@
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>92</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
@@ -2680,19 +2680,19 @@
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>69</v>
+      <c r="G14" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>95</v>
+        <v>175</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -2709,19 +2709,19 @@
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>77</v>
+      <c r="G15" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>97</v>
+        <v>175</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -2738,21 +2738,21 @@
         <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="36"/>
+        <v>83</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="31">
@@ -2768,17 +2768,17 @@
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="31">
@@ -2794,17 +2794,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="31">
@@ -2820,17 +2820,17 @@
         <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" s="31">
@@ -2846,19 +2846,19 @@
         <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>193</v>
+      <c r="G20" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>194</v>
+        <v>175</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2875,19 +2875,19 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18">
@@ -2901,7 +2901,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>56</v>
@@ -2913,13 +2913,13 @@
         <v>21</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2936,21 +2936,21 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="36"/>
+      <c r="H23" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="31">
@@ -2966,30 +2966,30 @@
         <v>23</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="36"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" ht="18">
       <c r="A25" s="31">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>56</v>
@@ -2998,10 +2998,10 @@
         <v>56</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>56</v>
@@ -3012,13 +3012,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>56</v>
@@ -3026,11 +3026,11 @@
       <c r="F26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="47" t="s">
-        <v>70</v>
+      <c r="G26" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
@@ -3050,21 +3050,21 @@
         <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="36"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="31">
@@ -3080,17 +3080,17 @@
         <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="31">
@@ -3106,17 +3106,17 @@
         <v>26</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36"/>
+        <v>113</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="31">
@@ -3132,17 +3132,17 @@
         <v>27</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="31">
@@ -3158,19 +3158,19 @@
         <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="48" t="s">
-        <v>173</v>
+      <c r="H31" s="39" t="s">
+        <v>169</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J31" s="29"/>
     </row>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>56</v>
@@ -3197,10 +3197,10 @@
         <v>29</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>197</v>
+        <v>87</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="J32" s="23"/>
     </row>
@@ -3218,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>56</v>
@@ -3227,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="H33" s="44"/>
-      <c r="I33" s="51"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="49">
+      <c r="A34" s="40">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3243,23 +3243,23 @@
         <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>127</v>
+      <c r="I34" s="47" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="49">
+      <c r="A35" s="40">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3272,16 +3272,16 @@
         <v>31</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38"/>
+        <v>119</v>
+      </c>
+      <c r="H35" s="52"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="31">
@@ -3294,7 +3294,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>56</v>
@@ -3303,13 +3303,13 @@
         <v>33</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J36" s="18"/>
     </row>
@@ -3318,13 +3318,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>56</v>
@@ -3333,10 +3333,10 @@
         <v>56</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>56</v>
@@ -3347,13 +3347,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>56</v>
@@ -3361,11 +3361,11 @@
       <c r="F38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="47" t="s">
-        <v>70</v>
+      <c r="G38" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>56</v>
@@ -3382,7 +3382,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>56</v>
@@ -3391,13 +3391,13 @@
         <v>35</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J39" s="18"/>
     </row>
@@ -3412,25 +3412,25 @@
         <v>47</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
@@ -3444,22 +3444,22 @@
         <v>47</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J41" s="18"/>
     </row>
@@ -3474,25 +3474,25 @@
         <v>47</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3509,19 +3509,19 @@
         <v>39</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="J43" s="18"/>
     </row>
@@ -3539,21 +3539,21 @@
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" s="36"/>
+        <v>137</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="31">
@@ -3569,17 +3569,17 @@
         <v>41</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="36"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="31">
@@ -3604,10 +3604,10 @@
         <v>42</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J46" s="19"/>
     </row>
@@ -3625,21 +3625,21 @@
         <v>34</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="I47" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="J47" s="36"/>
+      <c r="J47" s="53"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="31">
@@ -3655,21 +3655,21 @@
         <v>43</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="J48" s="36"/>
+        <v>194</v>
+      </c>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" ht="18">
       <c r="A49" s="31">
@@ -3682,7 +3682,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>56</v>
@@ -3691,10 +3691,10 @@
         <v>56</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>56</v>
@@ -3711,7 +3711,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>56</v>
@@ -3719,11 +3719,11 @@
       <c r="F50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>70</v>
+      <c r="G50" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>56</v>
@@ -3731,13 +3731,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="I52" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10">
       <c r="I53" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J53" s="13"/>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="I54" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J54" s="21"/>
     </row>
@@ -3758,8 +3758,8 @@
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="I55" s="52" t="s">
-        <v>161</v>
+      <c r="I55" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="J55" s="13"/>
     </row>
@@ -3770,7 +3770,7 @@
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="I56" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J56" s="18"/>
     </row>
@@ -3780,8 +3780,8 @@
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="I57" s="53" t="s">
-        <v>200</v>
+      <c r="I57" s="42" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3790,8 +3790,8 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
-      <c r="I58" s="53" t="s">
-        <v>153</v>
+      <c r="I58" s="42" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3799,6 +3799,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
@@ -3810,28 +3832,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
+++ b/hardware/PowerBoard/Document/STM32F10x Pin Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="343"/>
@@ -1634,8 +1634,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1752,12 +1752,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1930,15 +1924,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1948,33 +1967,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1985,6 +1979,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2063,6 +2062,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2097,6 +2097,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2272,14 +2273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2294,53 +2295,53 @@
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="G2" s="54"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -2370,7 +2371,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>2</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -2421,17 +2422,17 @@
       <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>4</v>
       </c>
@@ -2453,11 +2454,11 @@
       <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -2479,17 +2480,17 @@
       <c r="G7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -2511,11 +2512,11 @@
       <c r="G8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -2575,9 +2576,9 @@
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -2605,9 +2606,9 @@
       <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1">
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>10</v>
       </c>
@@ -2637,7 +2638,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>12</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>13</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>14</v>
       </c>
@@ -2746,15 +2747,15 @@
       <c r="G16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>15</v>
       </c>
@@ -2776,11 +2777,11 @@
       <c r="G17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="30">
+      <c r="H17" s="46"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>16</v>
       </c>
@@ -2802,11 +2803,11 @@
       <c r="G18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" spans="1:10" ht="30">
+      <c r="H18" s="46"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>17</v>
       </c>
@@ -2828,11 +2829,11 @@
       <c r="G19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="1:10" ht="30">
+      <c r="H19" s="46"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>18</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>19</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>20</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>21</v>
       </c>
@@ -2944,15 +2945,15 @@
       <c r="G23" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>22</v>
       </c>
@@ -2974,11 +2975,11 @@
       <c r="G24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" ht="18">
+      <c r="H24" s="48"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>23</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>24</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>25</v>
       </c>
@@ -3058,15 +3059,15 @@
       <c r="G27" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>26</v>
       </c>
@@ -3088,11 +3089,11 @@
       <c r="G28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>27</v>
       </c>
@@ -3114,11 +3115,11 @@
       <c r="G29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>28</v>
       </c>
@@ -3140,11 +3141,11 @@
       <c r="G30" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="53"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="55"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>29</v>
       </c>
@@ -3174,7 +3175,7 @@
       </c>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>30</v>
       </c>
@@ -3196,15 +3197,15 @@
       <c r="G32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="52" t="s">
         <v>193</v>
       </c>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>31</v>
       </c>
@@ -3226,11 +3227,11 @@
       <c r="G33" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="40">
+      <c r="H33" s="53"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3251,15 +3252,15 @@
       <c r="G34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="40">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3280,10 +3281,10 @@
       <c r="G35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>34</v>
       </c>
@@ -3313,7 +3314,7 @@
       </c>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" ht="18">
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>35</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18">
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>36</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>37</v>
       </c>
@@ -3401,7 +3402,7 @@
       </c>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>38</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>39</v>
       </c>
@@ -3463,7 +3464,7 @@
       </c>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>40</v>
       </c>
@@ -3485,17 +3486,14 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="H42" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>41</v>
       </c>
@@ -3517,15 +3515,17 @@
       <c r="G43" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+      <c r="H43" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>42</v>
       </c>
@@ -3547,15 +3547,15 @@
       <c r="G44" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>43</v>
       </c>
@@ -3577,11 +3577,11 @@
       <c r="G45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
         <v>44</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>45</v>
       </c>
@@ -3639,9 +3639,9 @@
       <c r="I47" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>46</v>
       </c>
@@ -3669,9 +3669,9 @@
       <c r="I48" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="53"/>
-    </row>
-    <row r="49" spans="1:10" ht="18">
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>47</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18">
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>48</v>
       </c>
@@ -3729,19 +3729,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I52" s="31" t="s">
         <v>184</v>
       </c>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I53" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="I55" s="41" t="s">
+      <c r="I55" s="40" t="s">
         <v>157</v>
       </c>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3774,53 +3778,31 @@
       </c>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="I57" s="42" t="s">
+      <c r="I57" s="41" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
-      <c r="I58" s="42" t="s">
+      <c r="I58" s="41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="G1:G2"/>
@@ -3832,6 +3814,28 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3839,24 +3843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
